--- a/data/financial_statements/sofp/NDAQ.xlsx
+++ b/data/financial_statements/sofp/NDAQ.xlsx
@@ -14,9 +14,129 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="38">
-  <si>
-    <t>Unnamed: 0</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="78">
+  <si>
+    <t>2022-12-31</t>
+  </si>
+  <si>
+    <t>2022-09-30</t>
+  </si>
+  <si>
+    <t>2022-06-30</t>
+  </si>
+  <si>
+    <t>2022-03-31</t>
+  </si>
+  <si>
+    <t>2021-12-31</t>
+  </si>
+  <si>
+    <t>2021-09-30</t>
+  </si>
+  <si>
+    <t>2021-06-30</t>
+  </si>
+  <si>
+    <t>2021-03-31</t>
+  </si>
+  <si>
+    <t>2020-12-31</t>
+  </si>
+  <si>
+    <t>2020-09-30</t>
+  </si>
+  <si>
+    <t>2020-06-30</t>
+  </si>
+  <si>
+    <t>2020-03-31</t>
+  </si>
+  <si>
+    <t>2019-12-31</t>
+  </si>
+  <si>
+    <t>2019-09-30</t>
+  </si>
+  <si>
+    <t>2019-06-30</t>
+  </si>
+  <si>
+    <t>2019-03-31</t>
+  </si>
+  <si>
+    <t>2018-12-31</t>
+  </si>
+  <si>
+    <t>2018-09-30</t>
+  </si>
+  <si>
+    <t>2018-06-30</t>
+  </si>
+  <si>
+    <t>2018-03-31</t>
+  </si>
+  <si>
+    <t>2017-12-31</t>
+  </si>
+  <si>
+    <t>2017-09-30</t>
+  </si>
+  <si>
+    <t>2017-06-30</t>
+  </si>
+  <si>
+    <t>2017-03-31</t>
+  </si>
+  <si>
+    <t>2016-12-31</t>
+  </si>
+  <si>
+    <t>2016-09-30</t>
+  </si>
+  <si>
+    <t>2016-06-30</t>
+  </si>
+  <si>
+    <t>2016-03-31</t>
+  </si>
+  <si>
+    <t>2015-12-31</t>
+  </si>
+  <si>
+    <t>2015-09-30</t>
+  </si>
+  <si>
+    <t>2015-06-30</t>
+  </si>
+  <si>
+    <t>2015-03-31</t>
+  </si>
+  <si>
+    <t>2014-12-31</t>
+  </si>
+  <si>
+    <t>2014-09-30</t>
+  </si>
+  <si>
+    <t>2014-06-30</t>
+  </si>
+  <si>
+    <t>2014-03-31</t>
+  </si>
+  <si>
+    <t>2013-12-31</t>
+  </si>
+  <si>
+    <t>2013-09-30</t>
+  </si>
+  <si>
+    <t>2013-06-30</t>
+  </si>
+  <si>
+    <t>2013-03-31</t>
+  </si>
+  <si>
+    <t>Item</t>
   </si>
   <si>
     <t>Cash and Short Term Investments</t>
@@ -134,9 +254,6 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="YYYY-MM-DD HH:MM:SS"/>
-  </numFmts>
   <fonts count="2">
     <font>
       <sz val="11"/>
@@ -189,12 +306,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
@@ -491,2954 +605,3020 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AN38"/>
+  <dimension ref="A1:AO38"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:40">
+    <row r="1" spans="1:41">
       <c r="A1" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2">
-        <v>44834</v>
-      </c>
-      <c r="C1" s="2">
-        <v>44742</v>
-      </c>
-      <c r="D1" s="2">
-        <v>44651</v>
-      </c>
-      <c r="E1" s="2">
-        <v>44561</v>
-      </c>
-      <c r="F1" s="2">
-        <v>44469</v>
-      </c>
-      <c r="G1" s="2">
-        <v>44377</v>
-      </c>
-      <c r="H1" s="2">
-        <v>44286</v>
-      </c>
-      <c r="I1" s="2">
-        <v>44196</v>
-      </c>
-      <c r="J1" s="2">
-        <v>44104</v>
-      </c>
-      <c r="K1" s="2">
-        <v>44012</v>
-      </c>
-      <c r="L1" s="2">
-        <v>43921</v>
-      </c>
-      <c r="M1" s="2">
-        <v>43830</v>
-      </c>
-      <c r="N1" s="2">
-        <v>43738</v>
-      </c>
-      <c r="O1" s="2">
-        <v>43646</v>
-      </c>
-      <c r="P1" s="2">
-        <v>43555</v>
-      </c>
-      <c r="Q1" s="2">
-        <v>43465</v>
-      </c>
-      <c r="R1" s="2">
-        <v>43373</v>
-      </c>
-      <c r="S1" s="2">
-        <v>43281</v>
-      </c>
-      <c r="T1" s="2">
-        <v>43190</v>
-      </c>
-      <c r="U1" s="2">
-        <v>43100</v>
-      </c>
-      <c r="V1" s="2">
-        <v>43008</v>
-      </c>
-      <c r="W1" s="2">
-        <v>42916</v>
-      </c>
-      <c r="X1" s="2">
-        <v>42825</v>
-      </c>
-      <c r="Y1" s="2">
-        <v>42735</v>
-      </c>
-      <c r="Z1" s="2">
-        <v>42643</v>
-      </c>
-      <c r="AA1" s="2">
-        <v>42551</v>
-      </c>
-      <c r="AB1" s="2">
-        <v>42460</v>
-      </c>
-      <c r="AC1" s="2">
-        <v>42369</v>
-      </c>
-      <c r="AD1" s="2">
-        <v>42277</v>
-      </c>
-      <c r="AE1" s="2">
-        <v>42185</v>
-      </c>
-      <c r="AF1" s="2">
-        <v>42094</v>
-      </c>
-      <c r="AG1" s="2">
-        <v>42004</v>
-      </c>
-      <c r="AH1" s="2">
-        <v>41912</v>
-      </c>
-      <c r="AI1" s="2">
-        <v>41820</v>
-      </c>
-      <c r="AJ1" s="2">
-        <v>41729</v>
-      </c>
-      <c r="AK1" s="2">
-        <v>41639</v>
-      </c>
-      <c r="AL1" s="2">
-        <v>41547</v>
-      </c>
-      <c r="AM1" s="2">
-        <v>41455</v>
-      </c>
-      <c r="AN1" s="2">
-        <v>41364</v>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="T1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="U1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="V1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="W1" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="X1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="Y1" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="Z1" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="AA1" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="AB1" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="AC1" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="AD1" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="AE1" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="AF1" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="AG1" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="AH1" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="AI1" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="AJ1" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="AK1" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="AL1" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="AM1" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="AN1" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="AO1" s="1" t="s">
+        <v>39</v>
       </c>
     </row>
-    <row r="2" spans="1:40">
-      <c r="A2" t="s">
-        <v>1</v>
+    <row r="2" spans="1:41">
+      <c r="A2" s="1" t="s">
+        <v>41</v>
       </c>
       <c r="B2">
+        <v>705000000</v>
+      </c>
+      <c r="C2">
         <v>352000000</v>
       </c>
-      <c r="C2">
+      <c r="D2">
         <v>645000000</v>
       </c>
-      <c r="D2">
+      <c r="E2">
         <v>742000000</v>
       </c>
-      <c r="E2">
+      <c r="F2">
         <v>422000000</v>
       </c>
-      <c r="F2">
+      <c r="G2">
         <v>517000000</v>
       </c>
-      <c r="G2">
+      <c r="H2">
         <v>665000000</v>
       </c>
-      <c r="H2">
+      <c r="I2">
         <v>1027000000</v>
       </c>
-      <c r="I2">
+      <c r="J2">
         <v>2977000000</v>
       </c>
-      <c r="J2">
+      <c r="K2">
         <v>794000000</v>
       </c>
-      <c r="K2">
+      <c r="L2">
         <v>947000000</v>
       </c>
-      <c r="L2">
+      <c r="M2">
         <v>1298000000</v>
       </c>
-      <c r="M2">
+      <c r="N2">
         <v>653000000</v>
       </c>
-      <c r="N2">
+      <c r="O2">
         <v>333000000</v>
       </c>
-      <c r="O2">
+      <c r="P2">
         <v>622000000</v>
       </c>
-      <c r="P2">
+      <c r="Q2">
         <v>759000000</v>
       </c>
-      <c r="Q2">
+      <c r="R2">
         <v>854000000</v>
       </c>
-      <c r="R2">
+      <c r="S2">
         <v>578000000</v>
       </c>
-      <c r="S2">
+      <c r="T2">
         <v>669000000</v>
       </c>
-      <c r="T2">
+      <c r="U2">
         <v>653000000</v>
       </c>
-      <c r="U2">
+      <c r="V2">
         <v>634000000</v>
       </c>
-      <c r="V2">
+      <c r="W2">
         <v>758000000</v>
       </c>
-      <c r="W2">
+      <c r="X2">
         <v>674000000</v>
       </c>
-      <c r="X2">
+      <c r="Y2">
         <v>684000000</v>
       </c>
-      <c r="Y2">
+      <c r="Z2">
         <v>663000000</v>
       </c>
-      <c r="Z2">
+      <c r="AA2">
         <v>514000000</v>
       </c>
-      <c r="AA2">
+      <c r="AB2">
         <v>621000000</v>
       </c>
-      <c r="AB2">
+      <c r="AC2">
         <v>611000000</v>
       </c>
-      <c r="AC2">
+      <c r="AD2">
         <v>558000000</v>
       </c>
-      <c r="AD2">
+      <c r="AE2">
         <v>501000000</v>
       </c>
-      <c r="AE2">
+      <c r="AF2">
         <v>605000000</v>
       </c>
-      <c r="AF2">
+      <c r="AG2">
         <v>541000000</v>
       </c>
-      <c r="AG2">
+      <c r="AH2">
         <v>650000000</v>
       </c>
-      <c r="AH2">
+      <c r="AI2">
         <v>482000000</v>
       </c>
-      <c r="AI2">
+      <c r="AJ2">
         <v>556000000</v>
       </c>
-      <c r="AJ2">
+      <c r="AK2">
         <v>665000000</v>
       </c>
-      <c r="AK2">
+      <c r="AL2">
         <v>671000000</v>
       </c>
-      <c r="AL2">
+      <c r="AM2">
         <v>571000000</v>
       </c>
-      <c r="AM2">
+      <c r="AN2">
         <v>631000000</v>
       </c>
-      <c r="AN2">
+      <c r="AO2">
         <v>892000000</v>
       </c>
     </row>
-    <row r="3" spans="1:40">
-      <c r="A3" t="s">
-        <v>2</v>
+    <row r="3" spans="1:41">
+      <c r="A3" s="1" t="s">
+        <v>42</v>
       </c>
       <c r="B3">
+        <v>677000000</v>
+      </c>
+      <c r="C3">
         <v>638000000</v>
       </c>
-      <c r="C3">
+      <c r="D3">
         <v>652000000</v>
       </c>
-      <c r="D3">
+      <c r="E3">
         <v>621000000</v>
       </c>
-      <c r="E3">
+      <c r="F3">
         <v>588000000</v>
       </c>
-      <c r="F3">
+      <c r="G3">
         <v>552000000</v>
       </c>
-      <c r="G3">
+      <c r="H3">
         <v>559000000</v>
       </c>
-      <c r="H3">
+      <c r="I3">
         <v>574000000</v>
       </c>
-      <c r="I3">
+      <c r="J3">
         <v>566000000</v>
       </c>
-      <c r="J3">
+      <c r="K3">
         <v>504000000</v>
       </c>
-      <c r="K3">
+      <c r="L3">
         <v>523000000</v>
       </c>
-      <c r="L3">
+      <c r="M3">
         <v>568000000</v>
       </c>
-      <c r="M3">
+      <c r="N3">
         <v>422000000</v>
       </c>
-      <c r="N3">
+      <c r="O3">
         <v>399000000</v>
       </c>
-      <c r="O3">
+      <c r="P3">
         <v>415000000</v>
       </c>
-      <c r="P3">
+      <c r="Q3">
         <v>447000000</v>
       </c>
-      <c r="Q3">
+      <c r="R3">
         <v>384000000</v>
       </c>
-      <c r="R3">
+      <c r="S3">
         <v>356000000</v>
       </c>
-      <c r="S3">
+      <c r="T3">
         <v>405000000</v>
       </c>
-      <c r="T3">
+      <c r="U3">
         <v>486000000</v>
       </c>
-      <c r="U3">
+      <c r="V3">
         <v>356000000</v>
       </c>
-      <c r="V3">
+      <c r="W3">
         <v>320000000</v>
       </c>
-      <c r="W3">
+      <c r="X3">
         <v>392000000</v>
       </c>
-      <c r="X3">
+      <c r="Y3">
         <v>467000000</v>
       </c>
-      <c r="Y3">
+      <c r="Z3">
         <v>429000000</v>
       </c>
-      <c r="Z3">
+      <c r="AA3">
         <v>349000000</v>
       </c>
-      <c r="AA3">
+      <c r="AB3">
         <v>399000000</v>
       </c>
-      <c r="AB3">
+      <c r="AC3">
         <v>333000000</v>
       </c>
-      <c r="AC3">
+      <c r="AD3">
         <v>316000000</v>
       </c>
-      <c r="AD3">
+      <c r="AE3">
         <v>278000000</v>
       </c>
-      <c r="AE3">
+      <c r="AF3">
         <v>323000000</v>
       </c>
-      <c r="AF3">
+      <c r="AG3">
         <v>344000000</v>
       </c>
-      <c r="AG3">
+      <c r="AH3">
         <v>389000000</v>
       </c>
-      <c r="AH3">
+      <c r="AI3">
         <v>370000000</v>
       </c>
-      <c r="AI3">
+      <c r="AJ3">
         <v>395000000</v>
       </c>
-      <c r="AJ3">
+      <c r="AK3">
         <v>434000000</v>
       </c>
-      <c r="AK3">
+      <c r="AL3">
         <v>393000000</v>
       </c>
-      <c r="AL3">
+      <c r="AM3">
         <v>372000000</v>
       </c>
-      <c r="AM3">
+      <c r="AN3">
         <v>362000000</v>
       </c>
-      <c r="AN3">
+      <c r="AO3">
         <v>317000000</v>
       </c>
     </row>
-    <row r="4" spans="1:40">
-      <c r="A4" t="s">
-        <v>3</v>
-      </c>
-      <c r="B4">
+    <row r="4" spans="1:41">
+      <c r="A4" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="C4">
         <v>129000000</v>
       </c>
-      <c r="E4">
+      <c r="F4">
         <v>208000000</v>
       </c>
-      <c r="N4">
+      <c r="O4">
         <v>201000000</v>
       </c>
-      <c r="Q4">
+      <c r="R4">
         <v>268000000</v>
       </c>
     </row>
-    <row r="5" spans="1:40">
-      <c r="A5" t="s">
-        <v>4</v>
+    <row r="5" spans="1:41">
+      <c r="A5" s="1" t="s">
+        <v>44</v>
       </c>
       <c r="B5">
+        <v>7222000000</v>
+      </c>
+      <c r="C5">
         <v>9732000000</v>
       </c>
-      <c r="C5">
+      <c r="D5">
         <v>8921000000</v>
       </c>
-      <c r="D5">
+      <c r="E5">
         <v>6815000000</v>
       </c>
-      <c r="E5">
+      <c r="F5">
         <v>6205000000</v>
       </c>
-      <c r="F5">
+      <c r="G5">
         <v>4427000000</v>
       </c>
-      <c r="G5">
+      <c r="H5">
         <v>3793000000</v>
       </c>
-      <c r="H5">
+      <c r="I5">
         <v>4053000000</v>
       </c>
-      <c r="I5">
+      <c r="J5">
         <v>4117000000</v>
       </c>
-      <c r="J5">
+      <c r="K5">
         <v>3512000000</v>
       </c>
-      <c r="K5">
+      <c r="L5">
         <v>3246000000</v>
       </c>
-      <c r="L5">
+      <c r="M5">
         <v>3404000000</v>
       </c>
-      <c r="M5">
+      <c r="N5">
         <v>3215000000</v>
       </c>
-      <c r="N5">
+      <c r="O5">
         <v>2566000000</v>
       </c>
-      <c r="O5">
+      <c r="P5">
         <v>3326000000</v>
       </c>
-      <c r="P5">
+      <c r="Q5">
         <v>3530000000</v>
       </c>
-      <c r="Q5">
+      <c r="R5">
         <v>5132000000</v>
       </c>
-      <c r="R5">
+      <c r="S5">
         <v>4523000000</v>
       </c>
-      <c r="S5">
+      <c r="T5">
         <v>4653000000</v>
       </c>
-      <c r="T5">
+      <c r="U5">
         <v>4499000000</v>
       </c>
-      <c r="U5">
+      <c r="V5">
         <v>4520000000</v>
       </c>
-      <c r="V5">
+      <c r="W5">
         <v>4368000000</v>
       </c>
-      <c r="W5">
+      <c r="X5">
         <v>3855000000</v>
       </c>
-      <c r="X5">
+      <c r="Y5">
         <v>3796000000</v>
       </c>
-      <c r="Y5">
+      <c r="Z5">
         <v>3468000000</v>
       </c>
-      <c r="Z5">
+      <c r="AA5">
         <v>3483000000</v>
       </c>
-      <c r="AA5">
+      <c r="AB5">
         <v>3576000000</v>
       </c>
-      <c r="AB5">
+      <c r="AC5">
         <v>3778000000</v>
       </c>
-      <c r="AC5">
+      <c r="AD5">
         <v>2386000000</v>
       </c>
-      <c r="AD5">
+      <c r="AE5">
         <v>2332000000</v>
       </c>
-      <c r="AE5">
+      <c r="AF5">
         <v>2483000000</v>
       </c>
-      <c r="AF5">
+      <c r="AG5">
         <v>2780000000</v>
       </c>
-      <c r="AG5">
+      <c r="AH5">
         <v>2345000000</v>
       </c>
-      <c r="AH5">
+      <c r="AI5">
         <v>2675000000</v>
       </c>
-      <c r="AI5">
+      <c r="AJ5">
         <v>2745000000</v>
       </c>
-      <c r="AJ5">
+      <c r="AK5">
         <v>2403000000</v>
       </c>
-      <c r="AK5">
+      <c r="AL5">
         <v>2087000000</v>
       </c>
-      <c r="AL5">
+      <c r="AM5">
         <v>2075000000</v>
       </c>
-      <c r="AM5">
+      <c r="AN5">
         <v>1566000000</v>
       </c>
-      <c r="AN5">
+      <c r="AO5">
         <v>353000000</v>
       </c>
     </row>
-    <row r="6" spans="1:40">
-      <c r="A6" t="s">
-        <v>5</v>
+    <row r="6" spans="1:41">
+      <c r="A6" s="1" t="s">
+        <v>45</v>
       </c>
       <c r="B6">
+        <v>8604000000</v>
+      </c>
+      <c r="C6">
         <v>10851000000</v>
       </c>
-      <c r="C6">
+      <c r="D6">
         <v>10218000000</v>
       </c>
-      <c r="D6">
+      <c r="E6">
         <v>8178000000</v>
       </c>
-      <c r="E6">
+      <c r="F6">
         <v>7423000000</v>
       </c>
-      <c r="F6">
+      <c r="G6">
         <v>5496000000</v>
       </c>
-      <c r="G6">
+      <c r="H6">
         <v>5017000000</v>
       </c>
-      <c r="H6">
+      <c r="I6">
         <v>5654000000</v>
       </c>
-      <c r="I6">
+      <c r="J6">
         <v>7660000000</v>
       </c>
-      <c r="J6">
+      <c r="K6">
         <v>4810000000</v>
       </c>
-      <c r="K6">
+      <c r="L6">
         <v>4716000000</v>
       </c>
-      <c r="L6">
+      <c r="M6">
         <v>5270000000</v>
       </c>
-      <c r="M6">
+      <c r="N6">
         <v>4290000000</v>
       </c>
-      <c r="N6">
+      <c r="O6">
         <v>3499000000</v>
       </c>
-      <c r="O6">
+      <c r="P6">
         <v>4363000000</v>
       </c>
-      <c r="P6">
+      <c r="Q6">
         <v>4736000000</v>
       </c>
-      <c r="Q6">
+      <c r="R6">
         <v>6370000000</v>
       </c>
-      <c r="R6">
+      <c r="S6">
         <v>5457000000</v>
       </c>
-      <c r="S6">
+      <c r="T6">
         <v>5727000000</v>
       </c>
-      <c r="T6">
+      <c r="U6">
         <v>5638000000</v>
       </c>
-      <c r="U6">
+      <c r="V6">
         <v>5510000000</v>
       </c>
-      <c r="V6">
+      <c r="W6">
         <v>5446000000</v>
       </c>
-      <c r="W6">
+      <c r="X6">
         <v>4921000000</v>
       </c>
-      <c r="X6">
+      <c r="Y6">
         <v>4947000000</v>
       </c>
-      <c r="Y6">
+      <c r="Z6">
         <v>4560000000</v>
       </c>
-      <c r="Z6">
+      <c r="AA6">
         <v>4346000000</v>
       </c>
-      <c r="AA6">
+      <c r="AB6">
         <v>4596000000</v>
       </c>
-      <c r="AB6">
+      <c r="AC6">
         <v>4722000000</v>
       </c>
-      <c r="AC6">
+      <c r="AD6">
         <v>3260000000</v>
       </c>
-      <c r="AD6">
+      <c r="AE6">
         <v>3160000000</v>
       </c>
-      <c r="AE6">
+      <c r="AF6">
         <v>3446000000</v>
       </c>
-      <c r="AF6">
+      <c r="AG6">
         <v>3688000000</v>
       </c>
-      <c r="AG6">
+      <c r="AH6">
         <v>3400000000</v>
       </c>
-      <c r="AH6">
+      <c r="AI6">
         <v>3557000000</v>
       </c>
-      <c r="AI6">
+      <c r="AJ6">
         <v>3718000000</v>
       </c>
-      <c r="AJ6">
+      <c r="AK6">
         <v>3519000000</v>
       </c>
-      <c r="AK6">
+      <c r="AL6">
         <v>3163000000</v>
       </c>
-      <c r="AL6">
+      <c r="AM6">
         <v>3072000000</v>
       </c>
-      <c r="AM6">
+      <c r="AN6">
         <v>2610000000</v>
       </c>
-      <c r="AN6">
+      <c r="AO6">
         <v>1608000000</v>
       </c>
     </row>
-    <row r="7" spans="1:40">
-      <c r="A7" t="s">
-        <v>6</v>
+    <row r="7" spans="1:41">
+      <c r="A7" s="1" t="s">
+        <v>46</v>
       </c>
       <c r="B7">
+        <v>532000000</v>
+      </c>
+      <c r="C7">
         <v>518000000</v>
       </c>
-      <c r="C7">
+      <c r="D7">
         <v>514000000</v>
       </c>
-      <c r="D7">
+      <c r="E7">
         <v>511000000</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>509000000</v>
       </c>
-      <c r="F7">
+      <c r="G7">
         <v>495000000</v>
       </c>
-      <c r="G7">
+      <c r="H7">
         <v>493000000</v>
       </c>
-      <c r="H7">
+      <c r="I7">
         <v>482000000</v>
       </c>
-      <c r="I7">
+      <c r="J7">
         <v>475000000</v>
       </c>
-      <c r="J7">
+      <c r="K7">
         <v>435000000</v>
       </c>
-      <c r="K7">
+      <c r="L7">
         <v>396000000</v>
       </c>
-      <c r="L7">
+      <c r="M7">
         <v>375000000</v>
       </c>
-      <c r="M7">
+      <c r="N7">
         <v>384000000</v>
       </c>
-      <c r="N7">
+      <c r="O7">
         <v>361000000</v>
       </c>
-      <c r="O7">
+      <c r="P7">
         <v>390000000</v>
       </c>
-      <c r="P7">
+      <c r="Q7">
         <v>370000000</v>
       </c>
-      <c r="Q7">
+      <c r="R7">
         <v>376000000</v>
       </c>
-      <c r="R7">
+      <c r="S7">
         <v>371000000</v>
       </c>
-      <c r="S7">
+      <c r="T7">
         <v>370000000</v>
       </c>
-      <c r="T7">
+      <c r="U7">
         <v>384000000</v>
       </c>
-      <c r="U7">
+      <c r="V7">
         <v>400000000</v>
       </c>
-      <c r="V7">
+      <c r="W7">
         <v>379000000</v>
       </c>
-      <c r="W7">
+      <c r="X7">
         <v>384000000</v>
       </c>
-      <c r="X7">
+      <c r="Y7">
         <v>376000000</v>
       </c>
-      <c r="Y7">
+      <c r="Z7">
         <v>362000000</v>
       </c>
-      <c r="Z7">
+      <c r="AA7">
         <v>342000000</v>
       </c>
-      <c r="AA7">
+      <c r="AB7">
         <v>332000000</v>
       </c>
-      <c r="AB7">
+      <c r="AC7">
         <v>326000000</v>
       </c>
-      <c r="AC7">
+      <c r="AD7">
         <v>323000000</v>
       </c>
-      <c r="AD7">
+      <c r="AE7">
         <v>305000000</v>
       </c>
-      <c r="AE7">
+      <c r="AF7">
         <v>295000000</v>
       </c>
-      <c r="AF7">
+      <c r="AG7">
         <v>281000000</v>
       </c>
-      <c r="AG7">
+      <c r="AH7">
         <v>292000000</v>
       </c>
-      <c r="AH7">
+      <c r="AI7">
         <v>288000000</v>
       </c>
-      <c r="AI7">
+      <c r="AJ7">
         <v>280000000</v>
       </c>
-      <c r="AJ7">
+      <c r="AK7">
         <v>266000000</v>
       </c>
-      <c r="AK7">
+      <c r="AL7">
         <v>268000000</v>
       </c>
-      <c r="AL7">
+      <c r="AM7">
         <v>249000000</v>
       </c>
-      <c r="AM7">
+      <c r="AN7">
         <v>227000000</v>
       </c>
-      <c r="AN7">
+      <c r="AO7">
         <v>215000000</v>
       </c>
     </row>
-    <row r="8" spans="1:40">
-      <c r="A8" t="s">
-        <v>7</v>
+    <row r="8" spans="1:41">
+      <c r="A8" s="1" t="s">
+        <v>47</v>
       </c>
       <c r="B8">
+        <v>10680000000</v>
+      </c>
+      <c r="C8">
         <v>10529000000</v>
       </c>
-      <c r="C8">
+      <c r="D8">
         <v>10821000000</v>
       </c>
-      <c r="D8">
+      <c r="E8">
         <v>11089000000</v>
       </c>
-      <c r="E8">
+      <c r="F8">
         <v>11246000000</v>
       </c>
-      <c r="F8">
+      <c r="G8">
         <v>11395000000</v>
       </c>
-      <c r="G8">
+      <c r="H8">
         <v>11528000000</v>
       </c>
-      <c r="H8">
+      <c r="I8">
         <v>11475000000</v>
       </c>
-      <c r="I8">
+      <c r="J8">
         <v>9105000000</v>
       </c>
-      <c r="J8">
+      <c r="K8">
         <v>8818000000</v>
       </c>
-      <c r="K8">
+      <c r="L8">
         <v>8703000000</v>
       </c>
-      <c r="L8">
+      <c r="M8">
         <v>8526000000</v>
       </c>
-      <c r="M8">
+      <c r="N8">
         <v>8615000000</v>
       </c>
-      <c r="N8">
+      <c r="O8">
         <v>8471000000</v>
       </c>
-      <c r="O8">
+      <c r="P8">
         <v>8686000000</v>
       </c>
-      <c r="P8">
+      <c r="Q8">
         <v>8709000000</v>
       </c>
-      <c r="Q8">
+      <c r="R8">
         <v>8663000000</v>
       </c>
-      <c r="R8">
+      <c r="S8">
         <v>8697000000</v>
       </c>
-      <c r="S8">
+      <c r="T8">
         <v>8706000000</v>
       </c>
-      <c r="T8">
+      <c r="U8">
         <v>8981000000</v>
       </c>
-      <c r="U8">
+      <c r="V8">
         <v>9054000000</v>
       </c>
-      <c r="V8">
+      <c r="W8">
         <v>8245000000</v>
       </c>
-      <c r="W8">
+      <c r="X8">
         <v>8339000000</v>
       </c>
-      <c r="X8">
+      <c r="Y8">
         <v>8152000000</v>
       </c>
-      <c r="Y8">
+      <c r="Z8">
         <v>8121000000</v>
       </c>
-      <c r="Z8">
+      <c r="AA8">
         <v>8946000000</v>
       </c>
-      <c r="AA8">
+      <c r="AB8">
         <v>9007000000</v>
       </c>
-      <c r="AB8">
+      <c r="AC8">
         <v>7748000000</v>
       </c>
-      <c r="AC8">
+      <c r="AD8">
         <v>7354000000</v>
       </c>
-      <c r="AD8">
+      <c r="AE8">
         <v>7402000000</v>
       </c>
-      <c r="AE8">
+      <c r="AF8">
         <v>7478000000</v>
       </c>
-      <c r="AF8">
+      <c r="AG8">
         <v>7345000000</v>
       </c>
-      <c r="AG8">
+      <c r="AH8">
         <v>7615000000</v>
       </c>
-      <c r="AH8">
+      <c r="AI8">
         <v>8015000000</v>
       </c>
-      <c r="AI8">
+      <c r="AJ8">
         <v>8381000000</v>
       </c>
-      <c r="AJ8">
+      <c r="AK8">
         <v>8535000000</v>
       </c>
-      <c r="AK8">
+      <c r="AL8">
         <v>8572000000</v>
       </c>
-      <c r="AL8">
+      <c r="AM8">
         <v>8600000000</v>
       </c>
-      <c r="AM8">
+      <c r="AN8">
         <v>8431000000</v>
       </c>
-      <c r="AN8">
+      <c r="AO8">
         <v>6928000000</v>
       </c>
     </row>
-    <row r="9" spans="1:40">
-      <c r="A9" t="s">
-        <v>8</v>
-      </c>
-      <c r="T9">
+    <row r="9" spans="1:41">
+      <c r="A9" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="U9">
         <v>416000000</v>
       </c>
-      <c r="V9">
+      <c r="W9">
         <v>611000000</v>
       </c>
-      <c r="W9">
+      <c r="X9">
         <v>633000000</v>
       </c>
-      <c r="X9">
+      <c r="Y9">
         <v>617000000</v>
       </c>
-      <c r="Y9">
+      <c r="Z9">
         <v>717000000</v>
       </c>
-      <c r="Z9">
+      <c r="AA9">
         <v>768000000</v>
       </c>
-      <c r="AA9">
+      <c r="AB9">
         <v>741000000</v>
       </c>
-      <c r="AB9">
+      <c r="AC9">
         <v>604000000</v>
       </c>
-      <c r="AC9">
+      <c r="AD9">
         <v>643000000</v>
       </c>
-      <c r="AD9">
+      <c r="AE9">
         <v>630000000</v>
       </c>
-      <c r="AE9">
+      <c r="AF9">
         <v>621000000</v>
       </c>
-      <c r="AF9">
+      <c r="AG9">
         <v>652000000</v>
       </c>
-      <c r="AG9">
+      <c r="AH9">
         <v>536000000</v>
       </c>
-      <c r="AH9">
+      <c r="AI9">
         <v>585000000</v>
       </c>
-      <c r="AI9">
+      <c r="AJ9">
         <v>482000000</v>
       </c>
-      <c r="AJ9">
+      <c r="AK9">
         <v>415000000</v>
       </c>
-      <c r="AK9">
+      <c r="AL9">
         <v>404000000</v>
       </c>
-      <c r="AL9">
+      <c r="AM9">
         <v>399000000</v>
       </c>
-      <c r="AM9">
+      <c r="AN9">
         <v>478000000</v>
       </c>
-      <c r="AN9">
+      <c r="AO9">
         <v>291000000</v>
       </c>
     </row>
-    <row r="10" spans="1:40">
-      <c r="A10" t="s">
-        <v>9</v>
+    <row r="10" spans="1:41">
+      <c r="A10" s="1" t="s">
+        <v>49</v>
       </c>
       <c r="B10">
+        <v>608000000</v>
+      </c>
+      <c r="C10">
         <v>595000000</v>
       </c>
-      <c r="C10">
+      <c r="D10">
         <v>581000000</v>
       </c>
-      <c r="D10">
+      <c r="E10">
         <v>575000000</v>
       </c>
-      <c r="E10">
+      <c r="F10">
         <v>571000000</v>
       </c>
-      <c r="F10">
+      <c r="G10">
         <v>628000000</v>
       </c>
-      <c r="G10">
+      <c r="H10">
         <v>562000000</v>
       </c>
-      <c r="H10">
+      <c r="I10">
         <v>483000000</v>
       </c>
-      <c r="I10">
+      <c r="J10">
         <v>358000000</v>
       </c>
-      <c r="J10">
+      <c r="K10">
         <v>381000000</v>
       </c>
-      <c r="K10">
+      <c r="L10">
         <v>339000000</v>
       </c>
-      <c r="L10">
+      <c r="M10">
         <v>303000000</v>
       </c>
-      <c r="M10">
+      <c r="N10">
         <v>289000000</v>
       </c>
-      <c r="N10">
+      <c r="O10">
         <v>303000000</v>
       </c>
-      <c r="O10">
+      <c r="P10">
         <v>328000000</v>
       </c>
-      <c r="P10">
+      <c r="Q10">
         <v>310000000</v>
       </c>
-      <c r="Q10">
+      <c r="R10">
         <v>291000000</v>
       </c>
-      <c r="R10">
+      <c r="S10">
         <v>330000000</v>
       </c>
-      <c r="S10">
+      <c r="T10">
         <v>338000000</v>
       </c>
-      <c r="T10">
+      <c r="U10">
         <v>371000000</v>
       </c>
-      <c r="U10">
+      <c r="V10">
         <v>390000000</v>
       </c>
-      <c r="V10">
+      <c r="W10">
         <v>391000000</v>
       </c>
-      <c r="W10">
+      <c r="X10">
         <v>383000000</v>
       </c>
-      <c r="X10">
+      <c r="Y10">
         <v>398000000</v>
       </c>
-      <c r="Y10">
+      <c r="Z10">
         <v>390000000</v>
       </c>
-      <c r="Z10">
+      <c r="AA10">
         <v>406000000</v>
       </c>
-      <c r="AA10">
+      <c r="AB10">
         <v>423000000</v>
       </c>
-      <c r="AB10">
+      <c r="AC10">
         <v>317000000</v>
       </c>
-      <c r="AC10">
+      <c r="AD10">
         <v>281000000</v>
       </c>
-      <c r="AD10">
+      <c r="AE10">
         <v>273000000</v>
       </c>
-      <c r="AE10">
+      <c r="AF10">
         <v>264000000</v>
       </c>
-      <c r="AF10">
+      <c r="AG10">
         <v>276000000</v>
       </c>
-      <c r="AG10">
+      <c r="AH10">
         <v>228000000</v>
       </c>
-      <c r="AH10">
+      <c r="AI10">
         <v>247000000</v>
       </c>
-      <c r="AI10">
+      <c r="AJ10">
         <v>255000000</v>
       </c>
-      <c r="AJ10">
+      <c r="AK10">
         <v>243000000</v>
       </c>
-      <c r="AK10">
+      <c r="AL10">
         <v>170000000</v>
       </c>
-      <c r="AL10">
+      <c r="AM10">
         <v>166000000</v>
       </c>
-      <c r="AM10">
+      <c r="AN10">
         <v>207000000</v>
       </c>
-      <c r="AN10">
+      <c r="AO10">
         <v>146000000</v>
       </c>
     </row>
-    <row r="11" spans="1:40">
-      <c r="A11" t="s">
-        <v>10</v>
+    <row r="11" spans="1:41">
+      <c r="A11" s="1" t="s">
+        <v>50</v>
       </c>
       <c r="B11">
+        <v>11820000000</v>
+      </c>
+      <c r="C11">
         <v>11642000000</v>
       </c>
-      <c r="C11">
+      <c r="D11">
         <v>11916000000</v>
       </c>
-      <c r="D11">
+      <c r="E11">
         <v>12175000000</v>
       </c>
-      <c r="E11">
+      <c r="F11">
         <v>12326000000</v>
       </c>
-      <c r="F11">
+      <c r="G11">
         <v>12518000000</v>
       </c>
-      <c r="G11">
+      <c r="H11">
         <v>12583000000</v>
       </c>
-      <c r="H11">
+      <c r="I11">
         <v>12440000000</v>
       </c>
-      <c r="I11">
+      <c r="J11">
         <v>9938000000</v>
       </c>
-      <c r="J11">
+      <c r="K11">
         <v>9634000000</v>
       </c>
-      <c r="K11">
+      <c r="L11">
         <v>9438000000</v>
       </c>
-      <c r="L11">
+      <c r="M11">
         <v>9204000000</v>
       </c>
-      <c r="M11">
+      <c r="N11">
         <v>9288000000</v>
       </c>
-      <c r="N11">
+      <c r="O11">
         <v>9135000000</v>
       </c>
-      <c r="O11">
+      <c r="P11">
         <v>9404000000</v>
       </c>
-      <c r="P11">
+      <c r="Q11">
         <v>9389000000</v>
       </c>
-      <c r="Q11">
+      <c r="R11">
         <v>9330000000</v>
       </c>
-      <c r="R11">
+      <c r="S11">
         <v>9398000000</v>
       </c>
-      <c r="S11">
+      <c r="T11">
         <v>9414000000</v>
       </c>
-      <c r="T11">
+      <c r="U11">
         <v>10152000000</v>
       </c>
-      <c r="U11">
+      <c r="V11">
         <v>9844000000</v>
       </c>
-      <c r="V11">
+      <c r="W11">
         <v>9626000000</v>
       </c>
-      <c r="W11">
+      <c r="X11">
         <v>9739000000</v>
       </c>
-      <c r="X11">
+      <c r="Y11">
         <v>9543000000</v>
       </c>
-      <c r="Y11">
+      <c r="Z11">
         <v>9590000000</v>
       </c>
-      <c r="Z11">
+      <c r="AA11">
         <v>10462000000</v>
       </c>
-      <c r="AA11">
+      <c r="AB11">
         <v>10503000000</v>
       </c>
-      <c r="AB11">
+      <c r="AC11">
         <v>8995000000</v>
       </c>
-      <c r="AC11">
+      <c r="AD11">
         <v>8601000000</v>
       </c>
-      <c r="AD11">
+      <c r="AE11">
         <v>8610000000</v>
       </c>
-      <c r="AE11">
+      <c r="AF11">
         <v>8658000000</v>
       </c>
-      <c r="AF11">
+      <c r="AG11">
         <v>8554000000</v>
       </c>
-      <c r="AG11">
+      <c r="AH11">
         <v>8671000000</v>
       </c>
-      <c r="AH11">
+      <c r="AI11">
         <v>9135000000</v>
       </c>
-      <c r="AI11">
+      <c r="AJ11">
         <v>9398000000</v>
       </c>
-      <c r="AJ11">
+      <c r="AK11">
         <v>9459000000</v>
-      </c>
-      <c r="AK11">
-        <v>9414000000</v>
       </c>
       <c r="AL11">
         <v>9414000000</v>
       </c>
       <c r="AM11">
+        <v>9414000000</v>
+      </c>
+      <c r="AN11">
         <v>9343000000</v>
       </c>
-      <c r="AN11">
+      <c r="AO11">
         <v>7580000000</v>
       </c>
     </row>
-    <row r="12" spans="1:40">
-      <c r="A12" t="s">
-        <v>11</v>
+    <row r="12" spans="1:41">
+      <c r="A12" s="1" t="s">
+        <v>51</v>
       </c>
       <c r="B12">
+        <v>20868000000</v>
+      </c>
+      <c r="C12">
         <v>22941000000</v>
       </c>
-      <c r="C12">
+      <c r="D12">
         <v>22596000000</v>
       </c>
-      <c r="D12">
+      <c r="E12">
         <v>20823000000</v>
       </c>
-      <c r="E12">
+      <c r="F12">
         <v>20115000000</v>
       </c>
-      <c r="F12">
+      <c r="G12">
         <v>18397000000</v>
       </c>
-      <c r="G12">
+      <c r="H12">
         <v>17983000000</v>
       </c>
-      <c r="H12">
+      <c r="I12">
         <v>18490000000</v>
       </c>
-      <c r="I12">
+      <c r="J12">
         <v>17979000000</v>
       </c>
-      <c r="J12">
+      <c r="K12">
         <v>14831000000</v>
       </c>
-      <c r="K12">
+      <c r="L12">
         <v>14559000000</v>
       </c>
-      <c r="L12">
+      <c r="M12">
         <v>14798000000</v>
       </c>
-      <c r="M12">
+      <c r="N12">
         <v>13924000000</v>
       </c>
-      <c r="N12">
+      <c r="O12">
         <v>12980000000</v>
       </c>
-      <c r="O12">
+      <c r="P12">
         <v>14132000000</v>
       </c>
-      <c r="P12">
+      <c r="Q12">
         <v>14503000000</v>
       </c>
-      <c r="Q12">
+      <c r="R12">
         <v>15700000000</v>
       </c>
-      <c r="R12">
+      <c r="S12">
         <v>14855000000</v>
       </c>
-      <c r="S12">
+      <c r="T12">
         <v>15141000000</v>
       </c>
-      <c r="T12">
+      <c r="U12">
         <v>15790000000</v>
       </c>
-      <c r="U12">
+      <c r="V12">
         <v>15354000000</v>
       </c>
-      <c r="V12">
+      <c r="W12">
         <v>15072000000</v>
       </c>
-      <c r="W12">
+      <c r="X12">
         <v>14660000000</v>
       </c>
-      <c r="X12">
+      <c r="Y12">
         <v>14490000000</v>
       </c>
-      <c r="Y12">
+      <c r="Z12">
         <v>14150000000</v>
       </c>
-      <c r="Z12">
+      <c r="AA12">
         <v>14808000000</v>
       </c>
-      <c r="AA12">
+      <c r="AB12">
         <v>15099000000</v>
       </c>
-      <c r="AB12">
+      <c r="AC12">
         <v>13717000000</v>
       </c>
-      <c r="AC12">
+      <c r="AD12">
         <v>11861000000</v>
       </c>
-      <c r="AD12">
+      <c r="AE12">
         <v>11770000000</v>
       </c>
-      <c r="AE12">
+      <c r="AF12">
         <v>12104000000</v>
       </c>
-      <c r="AF12">
+      <c r="AG12">
         <v>12242000000</v>
       </c>
-      <c r="AG12">
+      <c r="AH12">
         <v>12071000000</v>
       </c>
-      <c r="AH12">
+      <c r="AI12">
         <v>12692000000</v>
       </c>
-      <c r="AI12">
+      <c r="AJ12">
         <v>13116000000</v>
       </c>
-      <c r="AJ12">
+      <c r="AK12">
         <v>12978000000</v>
       </c>
-      <c r="AK12">
+      <c r="AL12">
         <v>12577000000</v>
       </c>
-      <c r="AL12">
+      <c r="AM12">
         <v>12486000000</v>
       </c>
-      <c r="AM12">
+      <c r="AN12">
         <v>11953000000</v>
       </c>
-      <c r="AN12">
+      <c r="AO12">
         <v>9188000000</v>
       </c>
     </row>
-    <row r="13" spans="1:40">
-      <c r="A13" t="s">
-        <v>12</v>
+    <row r="13" spans="1:41">
+      <c r="A13" s="1" t="s">
+        <v>52</v>
       </c>
       <c r="B13">
+        <v>664000000</v>
+      </c>
+      <c r="C13">
         <v>799000000</v>
       </c>
-      <c r="C13">
+      <c r="D13">
         <v>1020000000</v>
       </c>
-      <c r="D13">
+      <c r="E13">
         <v>1098000000</v>
       </c>
-      <c r="E13">
+      <c r="F13">
         <v>1018000000</v>
       </c>
-      <c r="F13">
+      <c r="G13">
         <v>480000000</v>
       </c>
-      <c r="G13">
+      <c r="H13">
         <v>221000000</v>
       </c>
-      <c r="H13">
+      <c r="I13">
         <v>435000000</v>
       </c>
-      <c r="L13">
+      <c r="M13">
         <v>1146000000</v>
       </c>
-      <c r="M13">
+      <c r="N13">
         <v>391000000</v>
       </c>
-      <c r="N13">
+      <c r="O13">
         <v>539000000</v>
       </c>
-      <c r="O13">
+      <c r="P13">
         <v>467000000</v>
       </c>
-      <c r="P13">
+      <c r="Q13">
         <v>1239000000</v>
       </c>
-      <c r="Q13">
+      <c r="R13">
         <v>875000000</v>
       </c>
-      <c r="R13">
+      <c r="S13">
         <v>808000000</v>
       </c>
-      <c r="S13">
+      <c r="T13">
         <v>768000000</v>
       </c>
-      <c r="T13">
+      <c r="U13">
         <v>960000000</v>
       </c>
-      <c r="U13">
+      <c r="V13">
         <v>480000000</v>
       </c>
-      <c r="V13">
+      <c r="W13">
         <v>154000000</v>
       </c>
-      <c r="W13">
+      <c r="X13">
         <v>494000000</v>
       </c>
     </row>
-    <row r="14" spans="1:40">
-      <c r="A14" t="s">
-        <v>13</v>
+    <row r="14" spans="1:41">
+      <c r="A14" s="1" t="s">
+        <v>53</v>
       </c>
       <c r="B14">
+        <v>428000000</v>
+      </c>
+      <c r="C14">
         <v>251000000</v>
       </c>
-      <c r="C14">
+      <c r="D14">
         <v>350000000</v>
       </c>
-      <c r="D14">
+      <c r="E14">
         <v>239000000</v>
       </c>
-      <c r="E14">
+      <c r="F14">
         <v>247000000</v>
       </c>
-      <c r="F14">
+      <c r="G14">
         <v>180000000</v>
       </c>
-      <c r="G14">
+      <c r="H14">
         <v>340000000</v>
       </c>
-      <c r="H14">
+      <c r="I14">
         <v>314000000</v>
       </c>
-      <c r="I14">
+      <c r="J14">
         <v>399000000</v>
       </c>
-      <c r="J14">
+      <c r="K14">
         <v>208000000</v>
       </c>
-      <c r="K14">
+      <c r="L14">
         <v>447000000</v>
       </c>
-      <c r="L14">
+      <c r="M14">
         <v>344000000</v>
       </c>
-      <c r="M14">
+      <c r="N14">
         <v>280000000</v>
       </c>
-      <c r="N14">
+      <c r="O14">
         <v>180000000</v>
       </c>
-      <c r="O14">
+      <c r="P14">
         <v>319000000</v>
       </c>
-      <c r="P14">
+      <c r="Q14">
         <v>287000000</v>
       </c>
-      <c r="Q14">
+      <c r="R14">
         <v>307000000</v>
       </c>
-      <c r="R14">
+      <c r="S14">
         <v>197000000</v>
       </c>
-      <c r="S14">
+      <c r="T14">
         <v>399000000</v>
       </c>
-      <c r="T14">
+      <c r="U14">
         <v>365000000</v>
       </c>
-      <c r="U14">
+      <c r="V14">
         <v>305000000</v>
       </c>
-      <c r="V14">
+      <c r="W14">
         <v>199000000</v>
       </c>
-      <c r="W14">
+      <c r="X14">
         <v>318000000</v>
       </c>
-      <c r="X14">
+      <c r="Y14">
         <v>268000000</v>
       </c>
-      <c r="Y14">
+      <c r="Z14">
         <v>283000000</v>
       </c>
-      <c r="Z14">
+      <c r="AA14">
         <v>186000000</v>
       </c>
-      <c r="AA14">
+      <c r="AB14">
         <v>332000000</v>
       </c>
-      <c r="AB14">
+      <c r="AC14">
         <v>255000000</v>
       </c>
-      <c r="AC14">
+      <c r="AD14">
         <v>256000000</v>
       </c>
-      <c r="AD14">
+      <c r="AE14">
         <v>198000000</v>
       </c>
-      <c r="AE14">
+      <c r="AF14">
         <v>335000000</v>
       </c>
-      <c r="AF14">
+      <c r="AG14">
         <v>289000000</v>
       </c>
-      <c r="AG14">
+      <c r="AH14">
         <v>313000000</v>
       </c>
-      <c r="AH14">
+      <c r="AI14">
         <v>208000000</v>
       </c>
-      <c r="AI14">
+      <c r="AJ14">
         <v>342000000</v>
       </c>
-      <c r="AJ14">
+      <c r="AK14">
         <v>301000000</v>
       </c>
-      <c r="AK14">
+      <c r="AL14">
         <v>310000000</v>
       </c>
-      <c r="AL14">
+      <c r="AM14">
         <v>274000000</v>
       </c>
-      <c r="AM14">
+      <c r="AN14">
         <v>397000000</v>
       </c>
-      <c r="AN14">
+      <c r="AO14">
         <v>288000000</v>
       </c>
     </row>
-    <row r="15" spans="1:40">
-      <c r="A15" t="s">
-        <v>14</v>
+    <row r="15" spans="1:41">
+      <c r="A15" s="1" t="s">
+        <v>54</v>
       </c>
       <c r="B15">
+        <v>243000000</v>
+      </c>
+      <c r="C15">
         <v>205000000</v>
       </c>
-      <c r="C15">
+      <c r="D15">
         <v>161000000</v>
       </c>
-      <c r="D15">
+      <c r="E15">
         <v>168000000</v>
       </c>
-      <c r="E15">
+      <c r="F15">
         <v>252000000</v>
       </c>
-      <c r="F15">
+      <c r="G15">
         <v>221000000</v>
       </c>
-      <c r="G15">
+      <c r="H15">
         <v>172000000</v>
       </c>
-      <c r="H15">
+      <c r="I15">
         <v>174000000</v>
       </c>
-      <c r="I15">
+      <c r="J15">
         <v>227000000</v>
       </c>
-      <c r="J15">
+      <c r="K15">
         <v>184000000</v>
       </c>
-      <c r="K15">
+      <c r="L15">
         <v>149000000</v>
       </c>
-      <c r="L15">
+      <c r="M15">
         <v>132000000</v>
       </c>
-      <c r="M15">
+      <c r="N15">
         <v>188000000</v>
       </c>
-      <c r="N15">
+      <c r="O15">
         <v>137000000</v>
       </c>
-      <c r="O15">
+      <c r="P15">
         <v>119000000</v>
       </c>
-      <c r="P15">
+      <c r="Q15">
         <v>118000000</v>
       </c>
-      <c r="Q15">
+      <c r="R15">
         <v>199000000</v>
       </c>
-      <c r="R15">
+      <c r="S15">
         <v>145000000</v>
       </c>
-      <c r="S15">
+      <c r="T15">
         <v>115000000</v>
       </c>
-      <c r="T15">
+      <c r="U15">
         <v>111000000</v>
       </c>
-      <c r="U15">
+      <c r="V15">
         <v>170000000</v>
       </c>
-      <c r="V15">
+      <c r="W15">
         <v>130000000</v>
       </c>
-      <c r="W15">
+      <c r="X15">
         <v>124000000</v>
       </c>
-      <c r="X15">
+      <c r="Y15">
         <v>110000000</v>
       </c>
-      <c r="Y15">
+      <c r="Z15">
         <v>207000000</v>
       </c>
-      <c r="Z15">
+      <c r="AA15">
         <v>175000000</v>
       </c>
-      <c r="AA15">
+      <c r="AB15">
         <v>129000000</v>
       </c>
-      <c r="AB15">
+      <c r="AC15">
         <v>87000000</v>
       </c>
-      <c r="AC15">
+      <c r="AD15">
         <v>171000000</v>
       </c>
-      <c r="AD15">
+      <c r="AE15">
         <v>121000000</v>
       </c>
-      <c r="AE15">
+      <c r="AF15">
         <v>94000000</v>
       </c>
-      <c r="AF15">
+      <c r="AG15">
         <v>71000000</v>
       </c>
-      <c r="AG15">
+      <c r="AH15">
         <v>143000000</v>
       </c>
-      <c r="AH15">
+      <c r="AI15">
         <v>110000000</v>
       </c>
-      <c r="AI15">
+      <c r="AJ15">
         <v>100000000</v>
       </c>
-      <c r="AJ15">
+      <c r="AK15">
         <v>96000000</v>
       </c>
-      <c r="AK15">
+      <c r="AL15">
         <v>154000000</v>
       </c>
-      <c r="AL15">
+      <c r="AM15">
         <v>115000000</v>
       </c>
-      <c r="AM15">
+      <c r="AN15">
         <v>84000000</v>
       </c>
-      <c r="AN15">
+      <c r="AO15">
         <v>59000000</v>
       </c>
     </row>
-    <row r="16" spans="1:40">
-      <c r="A16" t="s">
-        <v>15</v>
-      </c>
-      <c r="B16">
+    <row r="16" spans="1:41">
+      <c r="A16" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="C16">
         <v>853000000</v>
       </c>
-      <c r="C16">
+      <c r="D16">
         <v>1076000000</v>
       </c>
-      <c r="D16">
+      <c r="E16">
         <v>1156000000</v>
       </c>
-      <c r="E16">
+      <c r="F16">
         <v>1055000000</v>
       </c>
-      <c r="F16">
+      <c r="G16">
         <v>490000000</v>
       </c>
-      <c r="G16">
+      <c r="H16">
         <v>250000000</v>
       </c>
-      <c r="H16">
+      <c r="I16">
         <v>481000000</v>
       </c>
-      <c r="I16">
+      <c r="J16">
         <v>46000000</v>
       </c>
-      <c r="J16">
+      <c r="K16">
         <v>19000000</v>
       </c>
-      <c r="K16">
+      <c r="L16">
         <v>37000000</v>
       </c>
-      <c r="L16">
+      <c r="M16">
         <v>1204000000</v>
       </c>
-      <c r="M16">
+      <c r="N16">
         <v>452000000</v>
       </c>
-      <c r="X16">
+      <c r="Y16">
         <v>379000000</v>
       </c>
-      <c r="Z16">
+      <c r="AA16">
         <v>20000000</v>
       </c>
-      <c r="AD16">
+      <c r="AE16">
         <v>20000000</v>
       </c>
-      <c r="AJ16">
+      <c r="AK16">
         <v>430000000</v>
-      </c>
-      <c r="AK16">
-        <v>45000000</v>
       </c>
       <c r="AL16">
         <v>45000000</v>
       </c>
       <c r="AM16">
+        <v>45000000</v>
+      </c>
+      <c r="AN16">
         <v>138000000</v>
       </c>
     </row>
-    <row r="17" spans="1:40">
-      <c r="A17" t="s">
-        <v>16</v>
-      </c>
-      <c r="AN17">
+    <row r="17" spans="1:41">
+      <c r="A17" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="AO17">
         <v>137000000</v>
       </c>
     </row>
-    <row r="18" spans="1:40">
-      <c r="A18" t="s">
-        <v>17</v>
+    <row r="18" spans="1:41">
+      <c r="A18" s="1" t="s">
+        <v>57</v>
       </c>
       <c r="B18">
+        <v>357000000</v>
+      </c>
+      <c r="C18">
         <v>415000000</v>
       </c>
-      <c r="C18">
+      <c r="D18">
         <v>512000000</v>
       </c>
-      <c r="D18">
+      <c r="E18">
         <v>619000000</v>
       </c>
-      <c r="E18">
+      <c r="F18">
         <v>329000000</v>
       </c>
-      <c r="F18">
+      <c r="G18">
         <v>380000000</v>
       </c>
-      <c r="G18">
+      <c r="H18">
         <v>451000000</v>
       </c>
-      <c r="H18">
+      <c r="I18">
         <v>519000000</v>
       </c>
-      <c r="I18">
+      <c r="J18">
         <v>235000000</v>
       </c>
-      <c r="J18">
+      <c r="K18">
         <v>290000000</v>
       </c>
-      <c r="K18">
+      <c r="L18">
         <v>351000000</v>
       </c>
-      <c r="L18">
+      <c r="M18">
         <v>416000000</v>
       </c>
-      <c r="M18">
+      <c r="N18">
         <v>211000000</v>
       </c>
-      <c r="N18">
+      <c r="O18">
         <v>267000000</v>
       </c>
-      <c r="O18">
+      <c r="P18">
         <v>333000000</v>
       </c>
-      <c r="P18">
+      <c r="Q18">
         <v>402000000</v>
       </c>
-      <c r="Q18">
+      <c r="R18">
         <v>194000000</v>
       </c>
-      <c r="R18">
+      <c r="S18">
         <v>257000000</v>
       </c>
-      <c r="S18">
+      <c r="T18">
         <v>310000000</v>
       </c>
-      <c r="T18">
+      <c r="U18">
         <v>386000000</v>
       </c>
-      <c r="U18">
+      <c r="V18">
         <v>161000000</v>
       </c>
-      <c r="V18">
+      <c r="W18">
         <v>204000000</v>
       </c>
-      <c r="W18">
+      <c r="X18">
         <v>265000000</v>
       </c>
-      <c r="X18">
+      <c r="Y18">
         <v>322000000</v>
       </c>
-      <c r="Y18">
+      <c r="Z18">
         <v>162000000</v>
       </c>
-      <c r="Z18">
+      <c r="AA18">
         <v>216000000</v>
       </c>
-      <c r="AA18">
+      <c r="AB18">
         <v>275000000</v>
       </c>
-      <c r="AB18">
+      <c r="AC18">
         <v>304000000</v>
       </c>
-      <c r="AC18">
+      <c r="AD18">
         <v>127000000</v>
       </c>
-      <c r="AD18">
+      <c r="AE18">
         <v>164000000</v>
       </c>
-      <c r="AE18">
+      <c r="AF18">
         <v>231000000</v>
       </c>
-      <c r="AF18">
+      <c r="AG18">
         <v>282000000</v>
       </c>
-      <c r="AG18">
+      <c r="AH18">
         <v>177000000</v>
       </c>
-      <c r="AH18">
+      <c r="AI18">
         <v>191000000</v>
       </c>
-      <c r="AI18">
+      <c r="AJ18">
         <v>230000000</v>
       </c>
-      <c r="AJ18">
+      <c r="AK18">
         <v>276000000</v>
       </c>
-      <c r="AK18">
+      <c r="AL18">
         <v>151000000</v>
       </c>
-      <c r="AL18">
+      <c r="AM18">
         <v>187000000</v>
       </c>
-      <c r="AM18">
+      <c r="AN18">
         <v>222000000</v>
       </c>
-      <c r="AN18">
+      <c r="AO18">
         <v>250000000</v>
       </c>
     </row>
-    <row r="19" spans="1:40">
-      <c r="A19" t="s">
-        <v>18</v>
-      </c>
-      <c r="AD19">
+    <row r="19" spans="1:41">
+      <c r="A19" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="AE19">
         <v>27000000</v>
-      </c>
-      <c r="AE19">
-        <v>30000000</v>
       </c>
       <c r="AF19">
         <v>30000000</v>
       </c>
       <c r="AG19">
-        <v>37000000</v>
+        <v>30000000</v>
       </c>
       <c r="AH19">
         <v>37000000</v>
       </c>
       <c r="AI19">
+        <v>37000000</v>
+      </c>
+      <c r="AJ19">
         <v>38000000</v>
       </c>
-      <c r="AJ19">
+      <c r="AK19">
         <v>36000000</v>
-      </c>
-      <c r="AK19">
-        <v>38000000</v>
       </c>
       <c r="AL19">
         <v>38000000</v>
       </c>
       <c r="AM19">
+        <v>38000000</v>
+      </c>
+      <c r="AN19">
         <v>36000000</v>
       </c>
-      <c r="AN19">
+      <c r="AO19">
         <v>35000000</v>
       </c>
     </row>
-    <row r="20" spans="1:40">
-      <c r="A20" t="s">
-        <v>19</v>
+    <row r="20" spans="1:41">
+      <c r="A20" s="1" t="s">
+        <v>59</v>
       </c>
       <c r="B20">
+        <v>7143000000</v>
+      </c>
+      <c r="C20">
         <v>9665000000</v>
       </c>
-      <c r="C20">
+      <c r="D20">
         <v>8828000000</v>
       </c>
-      <c r="D20">
+      <c r="E20">
         <v>6727000000</v>
       </c>
-      <c r="E20">
+      <c r="F20">
         <v>6026000000</v>
       </c>
-      <c r="F20">
+      <c r="G20">
         <v>4334000000</v>
       </c>
-      <c r="G20">
+      <c r="H20">
         <v>3711000000</v>
       </c>
-      <c r="H20">
+      <c r="I20">
         <v>4114000000</v>
       </c>
-      <c r="I20">
+      <c r="J20">
         <v>4063000000</v>
       </c>
-      <c r="J20">
+      <c r="K20">
         <v>3479000000</v>
       </c>
-      <c r="K20">
+      <c r="L20">
         <v>3302000000</v>
       </c>
-      <c r="L20">
+      <c r="M20">
         <v>3412000000</v>
       </c>
-      <c r="M20">
+      <c r="N20">
         <v>3157000000</v>
       </c>
-      <c r="N20">
+      <c r="O20">
         <v>2422000000</v>
       </c>
-      <c r="O20">
+      <c r="P20">
         <v>3293000000</v>
       </c>
-      <c r="P20">
+      <c r="Q20">
         <v>3595000000</v>
       </c>
-      <c r="Q20">
+      <c r="R20">
         <v>4995000000</v>
       </c>
-      <c r="R20">
+      <c r="S20">
         <v>4392000000</v>
       </c>
-      <c r="S20">
+      <c r="T20">
         <v>4556000000</v>
       </c>
-      <c r="T20">
+      <c r="U20">
         <v>4214000000</v>
       </c>
-      <c r="U20">
+      <c r="V20">
         <v>4118000000</v>
       </c>
-      <c r="V20">
+      <c r="W20">
         <v>4036000000</v>
       </c>
-      <c r="W20">
+      <c r="X20">
         <v>3671000000</v>
       </c>
-      <c r="X20">
+      <c r="Y20">
         <v>3633000000</v>
       </c>
-      <c r="Y20">
+      <c r="Z20">
         <v>3430000000</v>
       </c>
-      <c r="Z20">
+      <c r="AA20">
         <v>3457000000</v>
       </c>
-      <c r="AA20">
+      <c r="AB20">
         <v>3572000000</v>
       </c>
-      <c r="AB20">
+      <c r="AC20">
         <v>3783000000</v>
       </c>
-      <c r="AC20">
+      <c r="AD20">
         <v>2228000000</v>
       </c>
-      <c r="AD20">
+      <c r="AE20">
         <v>2175000000</v>
       </c>
-      <c r="AE20">
+      <c r="AF20">
         <v>2456000000</v>
       </c>
-      <c r="AF20">
+      <c r="AG20">
         <v>2768000000</v>
       </c>
-      <c r="AG20">
+      <c r="AH20">
         <v>2310000000</v>
       </c>
-      <c r="AH20">
+      <c r="AI20">
         <v>2648000000</v>
       </c>
-      <c r="AI20">
+      <c r="AJ20">
         <v>2714000000</v>
       </c>
-      <c r="AJ20">
+      <c r="AK20">
         <v>2439000000</v>
       </c>
-      <c r="AK20">
+      <c r="AL20">
         <v>1961000000</v>
       </c>
-      <c r="AL20">
+      <c r="AM20">
         <v>2048000000</v>
       </c>
-      <c r="AM20">
+      <c r="AN20">
         <v>1412000000</v>
       </c>
-      <c r="AN20">
+      <c r="AO20">
         <v>345000000</v>
       </c>
     </row>
-    <row r="21" spans="1:40">
-      <c r="A21" t="s">
-        <v>20</v>
+    <row r="21" spans="1:41">
+      <c r="A21" s="1" t="s">
+        <v>60</v>
       </c>
       <c r="B21">
+        <v>8835000000</v>
+      </c>
+      <c r="C21">
         <v>11335000000</v>
       </c>
-      <c r="C21">
+      <c r="D21">
         <v>10871000000</v>
       </c>
-      <c r="D21">
+      <c r="E21">
         <v>8851000000</v>
       </c>
-      <c r="E21">
+      <c r="F21">
         <v>7872000000</v>
       </c>
-      <c r="F21">
+      <c r="G21">
         <v>5595000000</v>
       </c>
-      <c r="G21">
+      <c r="H21">
         <v>4895000000</v>
       </c>
-      <c r="H21">
+      <c r="I21">
         <v>5556000000</v>
       </c>
-      <c r="I21">
+      <c r="J21">
         <v>4924000000</v>
       </c>
-      <c r="J21">
+      <c r="K21">
         <v>4161000000</v>
       </c>
-      <c r="K21">
+      <c r="L21">
         <v>4249000000</v>
       </c>
-      <c r="L21">
+      <c r="M21">
         <v>5450000000</v>
       </c>
-      <c r="M21">
+      <c r="N21">
         <v>4227000000</v>
       </c>
-      <c r="N21">
+      <c r="O21">
         <v>3692000000</v>
       </c>
-      <c r="O21">
+      <c r="P21">
         <v>4531000000</v>
       </c>
-      <c r="P21">
+      <c r="Q21">
         <v>5641000000</v>
       </c>
-      <c r="Q21">
+      <c r="R21">
         <v>6570000000</v>
       </c>
-      <c r="R21">
+      <c r="S21">
         <v>5799000000</v>
       </c>
-      <c r="S21">
+      <c r="T21">
         <v>6148000000</v>
       </c>
-      <c r="T21">
+      <c r="U21">
         <v>6036000000</v>
       </c>
-      <c r="U21">
+      <c r="V21">
         <v>5234000000</v>
       </c>
-      <c r="V21">
+      <c r="W21">
         <v>4723000000</v>
       </c>
-      <c r="W21">
+      <c r="X21">
         <v>4987000000</v>
       </c>
-      <c r="X21">
+      <c r="Y21">
         <v>4886000000</v>
       </c>
-      <c r="Y21">
+      <c r="Z21">
         <v>4082000000</v>
       </c>
-      <c r="Z21">
+      <c r="AA21">
         <v>4054000000</v>
       </c>
-      <c r="AA21">
+      <c r="AB21">
         <v>4308000000</v>
       </c>
-      <c r="AB21">
+      <c r="AC21">
         <v>4429000000</v>
       </c>
-      <c r="AC21">
+      <c r="AD21">
         <v>2920000000</v>
       </c>
-      <c r="AD21">
+      <c r="AE21">
         <v>2852000000</v>
       </c>
-      <c r="AE21">
+      <c r="AF21">
         <v>3146000000</v>
       </c>
-      <c r="AF21">
+      <c r="AG21">
         <v>3440000000</v>
       </c>
-      <c r="AG21">
+      <c r="AH21">
         <v>2980000000</v>
       </c>
-      <c r="AH21">
+      <c r="AI21">
         <v>3194000000</v>
       </c>
-      <c r="AI21">
+      <c r="AJ21">
         <v>3424000000</v>
       </c>
-      <c r="AJ21">
+      <c r="AK21">
         <v>3578000000</v>
       </c>
-      <c r="AK21">
+      <c r="AL21">
         <v>2800000000</v>
       </c>
-      <c r="AL21">
+      <c r="AM21">
         <v>2707000000</v>
       </c>
-      <c r="AM21">
+      <c r="AN21">
         <v>2416000000</v>
       </c>
-      <c r="AN21">
+      <c r="AO21">
         <v>1114000000</v>
       </c>
     </row>
-    <row r="22" spans="1:40">
-      <c r="A22" t="s">
-        <v>21</v>
+    <row r="22" spans="1:41">
+      <c r="A22" s="1" t="s">
+        <v>61</v>
       </c>
       <c r="B22">
+        <v>4735000000</v>
+      </c>
+      <c r="C22">
         <v>4573000000</v>
       </c>
-      <c r="C22">
+      <c r="D22">
         <v>4696000000</v>
       </c>
-      <c r="D22">
+      <c r="E22">
         <v>4800000000</v>
       </c>
-      <c r="E22">
+      <c r="F22">
         <v>4812000000</v>
       </c>
-      <c r="F22">
+      <c r="G22">
         <v>5447000000</v>
       </c>
-      <c r="G22">
+      <c r="H22">
         <v>5480000000</v>
       </c>
-      <c r="H22">
+      <c r="I22">
         <v>5455000000</v>
       </c>
-      <c r="I22">
+      <c r="J22">
         <v>5541000000</v>
       </c>
-      <c r="J22">
+      <c r="K22">
         <v>3571000000</v>
       </c>
-      <c r="K22">
+      <c r="L22">
         <v>3482000000</v>
       </c>
-      <c r="L22">
+      <c r="M22">
         <v>2962000000</v>
       </c>
-      <c r="M22">
+      <c r="N22">
         <v>2996000000</v>
       </c>
-      <c r="N22">
+      <c r="O22">
         <v>2939000000</v>
       </c>
-      <c r="O22">
+      <c r="P22">
         <v>3022000000</v>
       </c>
-      <c r="P22">
+      <c r="Q22">
         <v>2328000000</v>
       </c>
-      <c r="Q22">
+      <c r="R22">
         <v>2956000000</v>
       </c>
-      <c r="R22">
+      <c r="S22">
         <v>3072000000</v>
       </c>
-      <c r="S22">
+      <c r="T22">
         <v>3079000000</v>
       </c>
-      <c r="T22">
+      <c r="U22">
         <v>3155000000</v>
       </c>
-      <c r="U22">
+      <c r="V22">
         <v>3727000000</v>
       </c>
-      <c r="V22">
+      <c r="W22">
         <v>3589000000</v>
       </c>
-      <c r="W22">
+      <c r="X22">
         <v>3058000000</v>
       </c>
-      <c r="X22">
+      <c r="Y22">
         <v>3242000000</v>
       </c>
-      <c r="Y22">
+      <c r="Z22">
         <v>3603000000</v>
       </c>
-      <c r="Z22">
+      <c r="AA22">
         <v>3689000000</v>
       </c>
-      <c r="AA22">
+      <c r="AB22">
         <v>3731000000</v>
       </c>
-      <c r="AB22">
+      <c r="AC22">
         <v>2565000000</v>
       </c>
-      <c r="AC22">
+      <c r="AD22">
         <v>2364000000</v>
       </c>
-      <c r="AD22">
+      <c r="AE22">
         <v>2415000000</v>
       </c>
-      <c r="AE22">
+      <c r="AF22">
         <v>2281000000</v>
       </c>
-      <c r="AF22">
+      <c r="AG22">
         <v>2306000000</v>
       </c>
-      <c r="AG22">
+      <c r="AH22">
         <v>2297000000</v>
       </c>
-      <c r="AH22">
+      <c r="AI22">
         <v>2345000000</v>
       </c>
-      <c r="AI22">
+      <c r="AJ22">
         <v>2408000000</v>
       </c>
-      <c r="AJ22">
+      <c r="AK22">
         <v>2084000000</v>
       </c>
-      <c r="AK22">
+      <c r="AL22">
         <v>2589000000</v>
       </c>
-      <c r="AL22">
+      <c r="AM22">
         <v>2673000000</v>
       </c>
-      <c r="AM22">
+      <c r="AN22">
         <v>2647000000</v>
       </c>
-      <c r="AN22">
+      <c r="AO22">
         <v>1829000000</v>
       </c>
     </row>
-    <row r="23" spans="1:40">
-      <c r="A23" t="s">
-        <v>22</v>
-      </c>
-      <c r="B23">
+    <row r="23" spans="1:41">
+      <c r="A23" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="C23">
         <v>415000000</v>
       </c>
-      <c r="C23">
+      <c r="D23">
         <v>512000000</v>
       </c>
-      <c r="D23">
+      <c r="E23">
         <v>619000000</v>
       </c>
-      <c r="E23">
+      <c r="F23">
         <v>329000000</v>
       </c>
-      <c r="F23">
+      <c r="G23">
         <v>380000000</v>
       </c>
-      <c r="G23">
+      <c r="H23">
         <v>451000000</v>
       </c>
-      <c r="H23">
+      <c r="I23">
         <v>519000000</v>
       </c>
-      <c r="I23">
+      <c r="J23">
         <v>235000000</v>
       </c>
-      <c r="J23">
+      <c r="K23">
         <v>290000000</v>
       </c>
-      <c r="K23">
+      <c r="L23">
         <v>351000000</v>
       </c>
-      <c r="L23">
+      <c r="M23">
         <v>416000000</v>
       </c>
-      <c r="M23">
+      <c r="N23">
         <v>211000000</v>
       </c>
-      <c r="R23">
+      <c r="S23">
         <v>91000000</v>
       </c>
-      <c r="S23">
+      <c r="T23">
         <v>96000000</v>
       </c>
-      <c r="T23">
+      <c r="U23">
         <v>106000000</v>
       </c>
-      <c r="U23">
+      <c r="V23">
         <v>126000000</v>
       </c>
-      <c r="V23">
+      <c r="W23">
         <v>157000000</v>
       </c>
-      <c r="W23">
+      <c r="X23">
         <v>161000000</v>
       </c>
-      <c r="X23">
+      <c r="Y23">
         <v>164000000</v>
       </c>
-      <c r="Y23">
+      <c r="Z23">
         <v>171000000</v>
       </c>
-      <c r="Z23">
+      <c r="AA23">
         <v>191000000</v>
       </c>
-      <c r="AA23">
+      <c r="AB23">
         <v>199000000</v>
       </c>
-      <c r="AB23">
+      <c r="AC23">
         <v>188000000</v>
       </c>
-      <c r="AC23">
+      <c r="AD23">
         <v>200000000</v>
       </c>
-      <c r="AD23">
+      <c r="AE23">
         <v>211000000</v>
       </c>
-      <c r="AE23">
+      <c r="AF23">
         <v>208000000</v>
       </c>
-      <c r="AF23">
+      <c r="AG23">
         <v>210000000</v>
       </c>
-      <c r="AG23">
+      <c r="AH23">
         <v>215000000</v>
       </c>
-      <c r="AH23">
+      <c r="AI23">
         <v>221000000</v>
       </c>
-      <c r="AI23">
+      <c r="AJ23">
         <v>232000000</v>
       </c>
-      <c r="AJ23">
+      <c r="AK23">
         <v>222000000</v>
       </c>
-      <c r="AK23">
+      <c r="AL23">
         <v>143000000</v>
       </c>
-      <c r="AL23">
+      <c r="AM23">
         <v>152000000</v>
       </c>
-      <c r="AM23">
+      <c r="AN23">
         <v>146000000</v>
       </c>
-      <c r="AN23">
+      <c r="AO23">
         <v>148000000</v>
       </c>
     </row>
-    <row r="24" spans="1:40">
-      <c r="A24" t="s">
-        <v>23</v>
+    <row r="24" spans="1:41">
+      <c r="A24" s="1" t="s">
+        <v>63</v>
       </c>
       <c r="B24">
+        <v>456000000</v>
+      </c>
+      <c r="C24">
         <v>470000000</v>
       </c>
-      <c r="C24">
+      <c r="D24">
         <v>464000000</v>
       </c>
-      <c r="D24">
+      <c r="E24">
         <v>431000000</v>
       </c>
-      <c r="E24">
+      <c r="F24">
         <v>406000000</v>
       </c>
-      <c r="F24">
+      <c r="G24">
         <v>395000000</v>
       </c>
-      <c r="G24">
+      <c r="H24">
         <v>337000000</v>
       </c>
-      <c r="H24">
+      <c r="I24">
         <v>542000000</v>
       </c>
-      <c r="I24">
+      <c r="J24">
         <v>502000000</v>
       </c>
-      <c r="J24">
+      <c r="K24">
         <v>513000000</v>
       </c>
-      <c r="K24">
+      <c r="L24">
         <v>506000000</v>
       </c>
-      <c r="L24">
+      <c r="M24">
         <v>507000000</v>
       </c>
-      <c r="M24">
+      <c r="N24">
         <v>552000000</v>
       </c>
-      <c r="N24">
+      <c r="O24">
         <v>525000000</v>
       </c>
-      <c r="O24">
+      <c r="P24">
         <v>510000000</v>
       </c>
-      <c r="P24">
+      <c r="Q24">
         <v>503000000</v>
       </c>
-      <c r="Q24">
+      <c r="R24">
         <v>501000000</v>
       </c>
-      <c r="R24">
+      <c r="S24">
         <v>137000000</v>
       </c>
-      <c r="S24">
+      <c r="T24">
         <v>99000000</v>
       </c>
-      <c r="T24">
+      <c r="U24">
         <v>600000000</v>
       </c>
-      <c r="U24">
+      <c r="V24">
         <v>225000000</v>
       </c>
-      <c r="V24">
+      <c r="W24">
         <v>726000000</v>
       </c>
-      <c r="W24">
+      <c r="X24">
         <v>732000000</v>
       </c>
-      <c r="X24">
+      <c r="Y24">
         <v>702000000</v>
       </c>
-      <c r="Y24">
+      <c r="Z24">
         <v>720000000</v>
       </c>
-      <c r="Z24">
+      <c r="AA24">
         <v>980000000</v>
       </c>
-      <c r="AA24">
+      <c r="AB24">
         <v>983000000</v>
       </c>
-      <c r="AB24">
+      <c r="AC24">
         <v>678000000</v>
       </c>
-      <c r="AC24">
+      <c r="AD24">
         <v>626000000</v>
       </c>
-      <c r="AD24">
+      <c r="AE24">
         <v>603000000</v>
       </c>
-      <c r="AE24">
+      <c r="AF24">
         <v>606000000</v>
       </c>
-      <c r="AF24">
+      <c r="AG24">
         <v>587000000</v>
       </c>
-      <c r="AG24">
+      <c r="AH24">
         <v>626000000</v>
       </c>
-      <c r="AH24">
+      <c r="AI24">
         <v>677000000</v>
       </c>
-      <c r="AI24">
+      <c r="AJ24">
         <v>697000000</v>
       </c>
-      <c r="AJ24">
+      <c r="AK24">
         <v>707000000</v>
       </c>
-      <c r="AK24">
+      <c r="AL24">
         <v>708000000</v>
       </c>
-      <c r="AL24">
+      <c r="AM24">
         <v>716000000</v>
       </c>
-      <c r="AM24">
+      <c r="AN24">
         <v>689000000</v>
       </c>
-      <c r="AN24">
+      <c r="AO24">
         <v>702000000</v>
       </c>
     </row>
-    <row r="25" spans="1:40">
-      <c r="A25" t="s">
-        <v>24</v>
+    <row r="25" spans="1:41">
+      <c r="A25" s="1" t="s">
+        <v>64</v>
       </c>
       <c r="B25">
+        <v>226000000</v>
+      </c>
+      <c r="C25">
         <v>223000000</v>
       </c>
-      <c r="C25">
+      <c r="D25">
         <v>244000000</v>
       </c>
-      <c r="D25">
+      <c r="E25">
         <v>241000000</v>
       </c>
-      <c r="E25">
+      <c r="F25">
         <v>234000000</v>
       </c>
-      <c r="F25">
+      <c r="G25">
         <v>207000000</v>
       </c>
-      <c r="G25">
+      <c r="H25">
         <v>203000000</v>
       </c>
-      <c r="H25">
+      <c r="I25">
         <v>197000000</v>
       </c>
-      <c r="I25">
+      <c r="J25">
         <v>187000000</v>
       </c>
-      <c r="J25">
+      <c r="K25">
         <v>175000000</v>
       </c>
-      <c r="K25">
+      <c r="L25">
         <v>162000000</v>
       </c>
-      <c r="L25">
+      <c r="M25">
         <v>171000000</v>
       </c>
-      <c r="M25">
+      <c r="N25">
         <v>179000000</v>
       </c>
-      <c r="N25">
+      <c r="O25">
         <v>170000000</v>
       </c>
-      <c r="O25">
+      <c r="P25">
         <v>175000000</v>
       </c>
-      <c r="P25">
+      <c r="Q25">
         <v>180000000</v>
       </c>
-      <c r="Q25">
+      <c r="R25">
         <v>224000000</v>
       </c>
-      <c r="R25">
+      <c r="S25">
         <v>154000000</v>
       </c>
-      <c r="S25">
+      <c r="T25">
         <v>177000000</v>
       </c>
-      <c r="T25">
+      <c r="U25">
         <v>168000000</v>
       </c>
-      <c r="U25">
+      <c r="V25">
         <v>162000000</v>
       </c>
-      <c r="V25">
+      <c r="W25">
         <v>142000000</v>
       </c>
-      <c r="W25">
+      <c r="X25">
         <v>146000000</v>
-      </c>
-      <c r="X25">
-        <v>144000000</v>
       </c>
       <c r="Y25">
         <v>144000000</v>
       </c>
       <c r="Z25">
+        <v>144000000</v>
+      </c>
+      <c r="AA25">
         <v>140000000</v>
       </c>
-      <c r="AA25">
+      <c r="AB25">
         <v>161000000</v>
       </c>
-      <c r="AB25">
+      <c r="AC25">
         <v>160000000</v>
       </c>
-      <c r="AC25">
+      <c r="AD25">
         <v>142000000</v>
       </c>
-      <c r="AD25">
+      <c r="AE25">
         <v>143000000</v>
       </c>
-      <c r="AE25">
+      <c r="AF25">
         <v>147000000</v>
       </c>
-      <c r="AF25">
+      <c r="AG25">
         <v>154000000</v>
       </c>
-      <c r="AG25">
+      <c r="AH25">
         <v>159000000</v>
       </c>
-      <c r="AH25">
+      <c r="AI25">
         <v>137000000</v>
       </c>
-      <c r="AI25">
+      <c r="AJ25">
         <v>148000000</v>
       </c>
-      <c r="AJ25">
+      <c r="AK25">
         <v>147000000</v>
       </c>
-      <c r="AK25">
+      <c r="AL25">
         <v>153000000</v>
       </c>
-      <c r="AL25">
+      <c r="AM25">
         <v>182000000</v>
-      </c>
-      <c r="AM25">
-        <v>192000000</v>
       </c>
       <c r="AN25">
         <v>192000000</v>
       </c>
+      <c r="AO25">
+        <v>192000000</v>
+      </c>
     </row>
-    <row r="26" spans="1:40">
-      <c r="A26" t="s">
-        <v>25</v>
+    <row r="26" spans="1:41">
+      <c r="A26" s="1" t="s">
+        <v>65</v>
       </c>
       <c r="B26">
+        <v>5869000000</v>
+      </c>
+      <c r="C26">
         <v>5722000000</v>
       </c>
-      <c r="C26">
+      <c r="D26">
         <v>5874000000</v>
       </c>
-      <c r="D26">
+      <c r="E26">
         <v>5950000000</v>
       </c>
-      <c r="E26">
+      <c r="F26">
         <v>5838000000</v>
       </c>
-      <c r="F26">
+      <c r="G26">
         <v>6447000000</v>
       </c>
-      <c r="G26">
+      <c r="H26">
         <v>6417000000</v>
       </c>
-      <c r="H26">
+      <c r="I26">
         <v>6600000000</v>
       </c>
-      <c r="I26">
+      <c r="J26">
         <v>6619000000</v>
       </c>
-      <c r="J26">
+      <c r="K26">
         <v>4656000000</v>
       </c>
-      <c r="K26">
+      <c r="L26">
         <v>4553000000</v>
       </c>
-      <c r="L26">
+      <c r="M26">
         <v>3950000000</v>
       </c>
-      <c r="M26">
+      <c r="N26">
         <v>4058000000</v>
       </c>
-      <c r="N26">
+      <c r="O26">
         <v>3961000000</v>
       </c>
-      <c r="O26">
+      <c r="P26">
         <v>4050000000</v>
       </c>
-      <c r="P26">
+      <c r="Q26">
         <v>3368000000</v>
       </c>
-      <c r="Q26">
+      <c r="R26">
         <v>3681000000</v>
       </c>
-      <c r="R26">
+      <c r="S26">
         <v>3454000000</v>
       </c>
-      <c r="S26">
+      <c r="T26">
         <v>3451000000</v>
       </c>
-      <c r="T26">
+      <c r="U26">
         <v>4029000000</v>
       </c>
-      <c r="U26">
+      <c r="V26">
         <v>4240000000</v>
       </c>
-      <c r="V26">
+      <c r="W26">
         <v>4614000000</v>
       </c>
-      <c r="W26">
+      <c r="X26">
         <v>4097000000</v>
       </c>
-      <c r="X26">
+      <c r="Y26">
         <v>4252000000</v>
       </c>
-      <c r="Y26">
+      <c r="Z26">
         <v>4638000000</v>
       </c>
-      <c r="Z26">
+      <c r="AA26">
         <v>5000000000</v>
       </c>
-      <c r="AA26">
+      <c r="AB26">
         <v>5074000000</v>
       </c>
-      <c r="AB26">
+      <c r="AC26">
         <v>3591000000</v>
       </c>
-      <c r="AC26">
+      <c r="AD26">
         <v>3332000000</v>
       </c>
-      <c r="AD26">
+      <c r="AE26">
         <v>3372000000</v>
       </c>
-      <c r="AE26">
+      <c r="AF26">
         <v>3242000000</v>
       </c>
-      <c r="AF26">
+      <c r="AG26">
         <v>3257000000</v>
       </c>
-      <c r="AG26">
+      <c r="AH26">
         <v>3297000000</v>
       </c>
-      <c r="AH26">
+      <c r="AI26">
         <v>3380000000</v>
       </c>
-      <c r="AI26">
+      <c r="AJ26">
         <v>3485000000</v>
       </c>
-      <c r="AJ26">
+      <c r="AK26">
         <v>3160000000</v>
       </c>
-      <c r="AK26">
+      <c r="AL26">
         <v>3593000000</v>
       </c>
-      <c r="AL26">
+      <c r="AM26">
         <v>3723000000</v>
       </c>
-      <c r="AM26">
+      <c r="AN26">
         <v>3674000000</v>
       </c>
-      <c r="AN26">
+      <c r="AO26">
         <v>2871000000</v>
       </c>
     </row>
-    <row r="27" spans="1:40">
-      <c r="A27" t="s">
-        <v>26</v>
+    <row r="27" spans="1:41">
+      <c r="A27" s="1" t="s">
+        <v>66</v>
       </c>
       <c r="B27">
+        <v>14704000000</v>
+      </c>
+      <c r="C27">
         <v>17057000000</v>
       </c>
-      <c r="C27">
+      <c r="D27">
         <v>16745000000</v>
       </c>
-      <c r="D27">
+      <c r="E27">
         <v>14801000000</v>
       </c>
-      <c r="E27">
+      <c r="F27">
         <v>13710000000</v>
       </c>
-      <c r="F27">
+      <c r="G27">
         <v>12042000000</v>
       </c>
-      <c r="G27">
+      <c r="H27">
         <v>11312000000</v>
       </c>
-      <c r="H27">
+      <c r="I27">
         <v>12156000000</v>
       </c>
-      <c r="I27">
+      <c r="J27">
         <v>11543000000</v>
       </c>
-      <c r="J27">
+      <c r="K27">
         <v>8817000000</v>
       </c>
-      <c r="K27">
+      <c r="L27">
         <v>8802000000</v>
       </c>
-      <c r="L27">
+      <c r="M27">
         <v>9400000000</v>
       </c>
-      <c r="M27">
+      <c r="N27">
         <v>8285000000</v>
       </c>
-      <c r="N27">
+      <c r="O27">
         <v>7653000000</v>
       </c>
-      <c r="O27">
+      <c r="P27">
         <v>8581000000</v>
       </c>
-      <c r="P27">
+      <c r="Q27">
         <v>9009000000</v>
       </c>
-      <c r="Q27">
+      <c r="R27">
         <v>10251000000</v>
       </c>
-      <c r="R27">
+      <c r="S27">
         <v>9253000000</v>
       </c>
-      <c r="S27">
+      <c r="T27">
         <v>9599000000</v>
       </c>
-      <c r="T27">
+      <c r="U27">
         <v>10065000000</v>
       </c>
-      <c r="U27">
+      <c r="V27">
         <v>9474000000</v>
       </c>
-      <c r="V27">
+      <c r="W27">
         <v>9337000000</v>
       </c>
-      <c r="W27">
+      <c r="X27">
         <v>9084000000</v>
       </c>
-      <c r="X27">
+      <c r="Y27">
         <v>9138000000</v>
       </c>
-      <c r="Y27">
+      <c r="Z27">
         <v>8720000000</v>
       </c>
-      <c r="Z27">
+      <c r="AA27">
         <v>9054000000</v>
       </c>
-      <c r="AA27">
+      <c r="AB27">
         <v>9382000000</v>
       </c>
-      <c r="AB27">
+      <c r="AC27">
         <v>8020000000</v>
       </c>
-      <c r="AC27">
+      <c r="AD27">
         <v>6252000000</v>
       </c>
-      <c r="AD27">
+      <c r="AE27">
         <v>6224000000</v>
       </c>
-      <c r="AE27">
+      <c r="AF27">
         <v>6388000000</v>
       </c>
-      <c r="AF27">
+      <c r="AG27">
         <v>6697000000</v>
       </c>
-      <c r="AG27">
+      <c r="AH27">
         <v>6277000000</v>
       </c>
-      <c r="AH27">
+      <c r="AI27">
         <v>6574000000</v>
       </c>
-      <c r="AI27">
+      <c r="AJ27">
         <v>6909000000</v>
       </c>
-      <c r="AJ27">
+      <c r="AK27">
         <v>6738000000</v>
       </c>
-      <c r="AK27">
+      <c r="AL27">
         <v>6393000000</v>
       </c>
-      <c r="AL27">
+      <c r="AM27">
         <v>6430000000</v>
       </c>
-      <c r="AM27">
+      <c r="AN27">
         <v>6090000000</v>
       </c>
-      <c r="AN27">
+      <c r="AO27">
         <v>3985000000</v>
       </c>
     </row>
-    <row r="28" spans="1:40">
-      <c r="A28" t="s">
-        <v>27</v>
+    <row r="28" spans="1:41">
+      <c r="A28" s="1" t="s">
+        <v>67</v>
       </c>
       <c r="B28">
+        <v>1445000000</v>
+      </c>
+      <c r="C28">
         <v>1408000000</v>
       </c>
-      <c r="C28">
+      <c r="D28">
         <v>1385000000</v>
       </c>
-      <c r="D28">
+      <c r="E28">
         <v>1510000000</v>
       </c>
-      <c r="E28">
+      <c r="F28">
         <v>1949000000</v>
       </c>
-      <c r="F28">
+      <c r="G28">
         <v>1983000000</v>
       </c>
-      <c r="G28">
+      <c r="H28">
         <v>2435000000</v>
       </c>
-      <c r="H28">
+      <c r="I28">
         <v>2405000000</v>
       </c>
-      <c r="I28">
+      <c r="J28">
         <v>2547000000</v>
       </c>
-      <c r="J28">
+      <c r="K28">
         <v>2524000000</v>
       </c>
-      <c r="K28">
+      <c r="L28">
         <v>2533000000</v>
       </c>
-      <c r="L28">
+      <c r="M28">
         <v>2527000000</v>
       </c>
-      <c r="M28">
+      <c r="N28">
         <v>2632000000</v>
       </c>
-      <c r="N28">
+      <c r="O28">
         <v>2585000000</v>
       </c>
-      <c r="O28">
+      <c r="P28">
         <v>2713000000</v>
       </c>
-      <c r="P28">
+      <c r="Q28">
         <v>2732000000</v>
       </c>
-      <c r="Q28">
+      <c r="R28">
         <v>2716000000</v>
       </c>
-      <c r="R28">
+      <c r="S28">
         <v>2676000000</v>
       </c>
-      <c r="S28">
+      <c r="T28">
         <v>2712000000</v>
       </c>
-      <c r="T28">
+      <c r="U28">
         <v>2926000000</v>
       </c>
-      <c r="U28">
+      <c r="V28">
         <v>3024000000</v>
       </c>
-      <c r="V28">
+      <c r="W28">
         <v>3012000000</v>
       </c>
-      <c r="W28">
+      <c r="X28">
         <v>3011000000</v>
       </c>
-      <c r="X28">
+      <c r="Y28">
         <v>2963000000</v>
       </c>
-      <c r="Y28">
+      <c r="Z28">
         <v>3104000000</v>
       </c>
-      <c r="Z28">
+      <c r="AA28">
         <v>3046000000</v>
       </c>
-      <c r="AA28">
+      <c r="AB28">
         <v>3062000000</v>
       </c>
-      <c r="AB28">
+      <c r="AC28">
         <v>3001000000</v>
       </c>
-      <c r="AC28">
+      <c r="AD28">
         <v>3011000000</v>
       </c>
-      <c r="AD28">
+      <c r="AE28">
         <v>3032000000</v>
       </c>
-      <c r="AE28">
+      <c r="AF28">
         <v>3257000000</v>
       </c>
-      <c r="AF28">
+      <c r="AG28">
         <v>3243000000</v>
       </c>
-      <c r="AG28">
+      <c r="AH28">
         <v>3222000000</v>
       </c>
-      <c r="AH28">
+      <c r="AI28">
         <v>4354000000</v>
       </c>
-      <c r="AI28">
+      <c r="AJ28">
         <v>4328000000</v>
       </c>
-      <c r="AJ28">
+      <c r="AK28">
         <v>4302000000</v>
       </c>
-      <c r="AK28">
+      <c r="AL28">
         <v>4278000000</v>
       </c>
-      <c r="AL28">
+      <c r="AM28">
         <v>4270000000</v>
       </c>
-      <c r="AM28">
+      <c r="AN28">
         <v>4261000000</v>
       </c>
-      <c r="AN28">
+      <c r="AO28">
         <v>3776000000</v>
       </c>
     </row>
-    <row r="29" spans="1:40">
-      <c r="A29" t="s">
-        <v>28</v>
+    <row r="29" spans="1:41">
+      <c r="A29" s="1" t="s">
+        <v>68</v>
       </c>
       <c r="B29">
         <v>5000000</v>
       </c>
       <c r="C29">
-        <v>2000000</v>
+        <v>5000000</v>
       </c>
       <c r="D29">
         <v>2000000</v>
       </c>
       <c r="E29">
+        <v>2000000</v>
+      </c>
+      <c r="F29">
         <v>5000000</v>
-      </c>
-      <c r="F29">
-        <v>2000000</v>
       </c>
       <c r="G29">
         <v>2000000</v>
@@ -3542,1102 +3722,1129 @@
       <c r="AN29">
         <v>2000000</v>
       </c>
+      <c r="AO29">
+        <v>2000000</v>
+      </c>
     </row>
-    <row r="30" spans="1:40">
-      <c r="A30" t="s">
-        <v>29</v>
+    <row r="30" spans="1:41">
+      <c r="A30" s="1" t="s">
+        <v>69</v>
       </c>
       <c r="B30">
+        <v>7207000000</v>
+      </c>
+      <c r="C30">
         <v>7064000000</v>
       </c>
-      <c r="C30">
+      <c r="D30">
         <v>6869000000</v>
       </c>
-      <c r="D30">
+      <c r="E30">
         <v>6660000000</v>
       </c>
-      <c r="E30">
+      <c r="F30">
         <v>6465000000</v>
       </c>
-      <c r="F30">
+      <c r="G30">
         <v>6296000000</v>
       </c>
-      <c r="G30">
+      <c r="H30">
         <v>6098000000</v>
       </c>
-      <c r="H30">
+      <c r="I30">
         <v>5845000000</v>
       </c>
-      <c r="I30">
+      <c r="J30">
         <v>5628000000</v>
       </c>
-      <c r="J30">
+      <c r="K30">
         <v>5484000000</v>
       </c>
-      <c r="K30">
+      <c r="L30">
         <v>5301000000</v>
       </c>
-      <c r="L30">
+      <c r="M30">
         <v>5140000000</v>
       </c>
-      <c r="M30">
+      <c r="N30">
         <v>5027000000</v>
       </c>
-      <c r="N30">
+      <c r="O30">
         <v>4901000000</v>
       </c>
-      <c r="O30">
+      <c r="P30">
         <v>4829000000</v>
       </c>
-      <c r="P30">
+      <c r="Q30">
         <v>4732000000</v>
       </c>
-      <c r="Q30">
+      <c r="R30">
         <v>4558000000</v>
       </c>
-      <c r="R30">
+      <c r="S30">
         <v>4399000000</v>
       </c>
-      <c r="S30">
+      <c r="T30">
         <v>4309000000</v>
       </c>
-      <c r="T30">
+      <c r="U30">
         <v>4146000000</v>
       </c>
-      <c r="U30">
+      <c r="V30">
         <v>3963000000</v>
       </c>
-      <c r="V30">
+      <c r="W30">
         <v>3787000000</v>
       </c>
-      <c r="W30">
+      <c r="X30">
         <v>3680000000</v>
       </c>
-      <c r="X30">
+      <c r="Y30">
         <v>3595000000</v>
       </c>
-      <c r="Y30">
+      <c r="Z30">
         <v>3479000000</v>
       </c>
-      <c r="Z30">
+      <c r="AA30">
         <v>3757000000</v>
       </c>
-      <c r="AA30">
+      <c r="AB30">
         <v>3679000000</v>
       </c>
-      <c r="AB30">
+      <c r="AC30">
         <v>3609000000</v>
       </c>
-      <c r="AC30">
+      <c r="AD30">
         <v>3571000000</v>
       </c>
-      <c r="AD30">
+      <c r="AE30">
         <v>3464000000</v>
       </c>
-      <c r="AE30">
+      <c r="AF30">
         <v>3366000000</v>
       </c>
-      <c r="AF30">
+      <c r="AG30">
         <v>3276000000</v>
       </c>
-      <c r="AG30">
+      <c r="AH30">
         <v>3292000000</v>
       </c>
-      <c r="AH30">
+      <c r="AI30">
         <v>3231000000</v>
       </c>
-      <c r="AI30">
+      <c r="AJ30">
         <v>3134000000</v>
       </c>
-      <c r="AJ30">
+      <c r="AK30">
         <v>3032000000</v>
       </c>
-      <c r="AK30">
+      <c r="AL30">
         <v>2976000000</v>
       </c>
-      <c r="AL30">
+      <c r="AM30">
         <v>2857000000</v>
       </c>
-      <c r="AM30">
+      <c r="AN30">
         <v>2765000000</v>
       </c>
-      <c r="AN30">
+      <c r="AO30">
         <v>2699000000</v>
       </c>
     </row>
-    <row r="31" spans="1:40">
-      <c r="A31" t="s">
-        <v>30</v>
+    <row r="31" spans="1:41">
+      <c r="A31" s="1" t="s">
+        <v>70</v>
       </c>
       <c r="B31">
+        <v>515000000</v>
+      </c>
+      <c r="C31">
         <v>510000000</v>
       </c>
-      <c r="C31">
+      <c r="D31">
         <v>509000000</v>
       </c>
-      <c r="D31">
+      <c r="E31">
         <v>489000000</v>
       </c>
-      <c r="E31">
+      <c r="F31">
         <v>437000000</v>
       </c>
-      <c r="F31">
+      <c r="G31">
         <v>425000000</v>
       </c>
-      <c r="G31">
+      <c r="H31">
         <v>423000000</v>
       </c>
-      <c r="H31">
+      <c r="I31">
         <v>415000000</v>
       </c>
-      <c r="I31">
+      <c r="J31">
         <v>376000000</v>
-      </c>
-      <c r="J31">
-        <v>367000000</v>
       </c>
       <c r="K31">
         <v>367000000</v>
       </c>
       <c r="L31">
+        <v>367000000</v>
+      </c>
+      <c r="M31">
         <v>364000000</v>
       </c>
-      <c r="M31">
+      <c r="N31">
         <v>336000000</v>
       </c>
-      <c r="N31">
+      <c r="O31">
         <v>328000000</v>
-      </c>
-      <c r="O31">
-        <v>327000000</v>
       </c>
       <c r="P31">
         <v>327000000</v>
       </c>
       <c r="Q31">
+        <v>327000000</v>
+      </c>
+      <c r="R31">
         <v>297000000</v>
       </c>
-      <c r="R31">
+      <c r="S31">
         <v>291000000</v>
       </c>
-      <c r="S31">
+      <c r="T31">
         <v>290000000</v>
       </c>
-      <c r="T31">
+      <c r="U31">
         <v>289000000</v>
       </c>
-      <c r="U31">
+      <c r="V31">
         <v>247000000</v>
       </c>
-      <c r="V31">
+      <c r="W31">
         <v>241000000</v>
       </c>
-      <c r="W31">
+      <c r="X31">
         <v>225000000</v>
       </c>
-      <c r="X31">
+      <c r="Y31">
         <v>221000000</v>
       </c>
-      <c r="Y31">
+      <c r="Z31">
         <v>176000000</v>
       </c>
-      <c r="Z31">
+      <c r="AA31">
         <v>169000000</v>
       </c>
-      <c r="AA31">
+      <c r="AB31">
         <v>166000000</v>
       </c>
-      <c r="AB31">
+      <c r="AC31">
         <v>145000000</v>
       </c>
-      <c r="AC31">
+      <c r="AD31">
         <v>111000000</v>
       </c>
-      <c r="AD31">
+      <c r="AE31">
         <v>105000000</v>
       </c>
-      <c r="AE31">
+      <c r="AF31">
         <v>104000000</v>
       </c>
-      <c r="AF31">
+      <c r="AG31">
         <v>94000000</v>
       </c>
-      <c r="AG31">
+      <c r="AH31">
         <v>41000000</v>
       </c>
-      <c r="AH31">
+      <c r="AI31">
         <v>1145000000</v>
       </c>
-      <c r="AI31">
+      <c r="AJ31">
         <v>1117000000</v>
       </c>
-      <c r="AJ31">
+      <c r="AK31">
         <v>1026000000</v>
       </c>
-      <c r="AK31">
+      <c r="AL31">
         <v>1005000000</v>
       </c>
-      <c r="AL31">
+      <c r="AM31">
         <v>1023000000</v>
       </c>
-      <c r="AM31">
+      <c r="AN31">
         <v>1027000000</v>
       </c>
-      <c r="AN31">
+      <c r="AO31">
         <v>1059000000</v>
       </c>
     </row>
-    <row r="32" spans="1:40">
-      <c r="A32" t="s">
-        <v>31</v>
+    <row r="32" spans="1:41">
+      <c r="A32" s="1" t="s">
+        <v>71</v>
       </c>
       <c r="B32">
+        <v>6164000000</v>
+      </c>
+      <c r="C32">
         <v>5884000000</v>
       </c>
-      <c r="C32">
+      <c r="D32">
         <v>5851000000</v>
       </c>
-      <c r="D32">
+      <c r="E32">
         <v>6022000000</v>
       </c>
-      <c r="E32">
+      <c r="F32">
         <v>6405000000</v>
       </c>
-      <c r="F32">
+      <c r="G32">
         <v>6355000000</v>
       </c>
-      <c r="G32">
+      <c r="H32">
         <v>6671000000</v>
       </c>
-      <c r="H32">
+      <c r="I32">
         <v>6334000000</v>
       </c>
-      <c r="I32">
+      <c r="J32">
         <v>6436000000</v>
       </c>
-      <c r="J32">
+      <c r="K32">
         <v>6014000000</v>
       </c>
-      <c r="K32">
+      <c r="L32">
         <v>5757000000</v>
       </c>
-      <c r="L32">
+      <c r="M32">
         <v>5398000000</v>
       </c>
-      <c r="M32">
+      <c r="N32">
         <v>5639000000</v>
       </c>
-      <c r="N32">
+      <c r="O32">
         <v>5327000000</v>
       </c>
-      <c r="O32">
+      <c r="P32">
         <v>5551000000</v>
       </c>
-      <c r="P32">
+      <c r="Q32">
         <v>5494000000</v>
       </c>
-      <c r="Q32">
+      <c r="R32">
         <v>5449000000</v>
       </c>
-      <c r="R32">
+      <c r="S32">
         <v>5602000000</v>
       </c>
-      <c r="S32">
+      <c r="T32">
         <v>5542000000</v>
       </c>
-      <c r="T32">
+      <c r="U32">
         <v>5725000000</v>
       </c>
-      <c r="U32">
+      <c r="V32">
         <v>5880000000</v>
       </c>
-      <c r="V32">
+      <c r="W32">
         <v>5735000000</v>
       </c>
-      <c r="W32">
+      <c r="X32">
         <v>5576000000</v>
       </c>
-      <c r="X32">
+      <c r="Y32">
         <v>5352000000</v>
       </c>
-      <c r="Y32">
+      <c r="Z32">
         <v>5430000000</v>
       </c>
-      <c r="Z32">
+      <c r="AA32">
         <v>5754000000</v>
       </c>
-      <c r="AA32">
+      <c r="AB32">
         <v>5717000000</v>
       </c>
-      <c r="AB32">
+      <c r="AC32">
         <v>5697000000</v>
       </c>
-      <c r="AC32">
+      <c r="AD32">
         <v>5609000000</v>
       </c>
-      <c r="AD32">
+      <c r="AE32">
         <v>5546000000</v>
       </c>
-      <c r="AE32">
+      <c r="AF32">
         <v>5716000000</v>
       </c>
-      <c r="AF32">
+      <c r="AG32">
         <v>5545000000</v>
       </c>
-      <c r="AG32">
+      <c r="AH32">
         <v>5794000000</v>
       </c>
-      <c r="AH32">
+      <c r="AI32">
         <v>6118000000</v>
       </c>
-      <c r="AI32">
+      <c r="AJ32">
         <v>6207000000</v>
       </c>
-      <c r="AJ32">
+      <c r="AK32">
         <v>6240000000</v>
       </c>
-      <c r="AK32">
+      <c r="AL32">
         <v>6184000000</v>
       </c>
-      <c r="AL32">
+      <c r="AM32">
         <v>6056000000</v>
       </c>
-      <c r="AM32">
+      <c r="AN32">
         <v>5863000000</v>
       </c>
-      <c r="AN32">
+      <c r="AO32">
         <v>5203000000</v>
       </c>
     </row>
-    <row r="33" spans="1:40">
-      <c r="A33" t="s">
-        <v>32</v>
+    <row r="33" spans="1:41">
+      <c r="A33" s="1" t="s">
+        <v>72</v>
       </c>
       <c r="B33">
+        <v>6164000000</v>
+      </c>
+      <c r="C33">
         <v>5884000000</v>
       </c>
-      <c r="C33">
+      <c r="D33">
         <v>5851000000</v>
       </c>
-      <c r="D33">
+      <c r="E33">
         <v>6022000000</v>
       </c>
-      <c r="E33">
+      <c r="F33">
         <v>6405000000</v>
       </c>
-      <c r="F33">
+      <c r="G33">
         <v>6355000000</v>
       </c>
-      <c r="G33">
+      <c r="H33">
         <v>6671000000</v>
       </c>
-      <c r="H33">
+      <c r="I33">
         <v>6334000000</v>
       </c>
-      <c r="I33">
+      <c r="J33">
         <v>6436000000</v>
       </c>
-      <c r="J33">
+      <c r="K33">
         <v>6014000000</v>
       </c>
-      <c r="K33">
+      <c r="L33">
         <v>5757000000</v>
       </c>
-      <c r="L33">
+      <c r="M33">
         <v>5398000000</v>
       </c>
-      <c r="M33">
+      <c r="N33">
         <v>5639000000</v>
       </c>
-      <c r="N33">
+      <c r="O33">
         <v>5327000000</v>
       </c>
-      <c r="O33">
+      <c r="P33">
         <v>5551000000</v>
       </c>
-      <c r="P33">
+      <c r="Q33">
         <v>5494000000</v>
       </c>
-      <c r="Q33">
+      <c r="R33">
         <v>5449000000</v>
       </c>
-      <c r="R33">
+      <c r="S33">
         <v>5602000000</v>
       </c>
-      <c r="S33">
+      <c r="T33">
         <v>5542000000</v>
       </c>
-      <c r="T33">
+      <c r="U33">
         <v>5725000000</v>
       </c>
-      <c r="U33">
+      <c r="V33">
         <v>5880000000</v>
       </c>
-      <c r="V33">
+      <c r="W33">
         <v>5735000000</v>
       </c>
-      <c r="W33">
+      <c r="X33">
         <v>5576000000</v>
       </c>
-      <c r="X33">
+      <c r="Y33">
         <v>5352000000</v>
       </c>
-      <c r="Y33">
+      <c r="Z33">
         <v>5430000000</v>
       </c>
-      <c r="Z33">
+      <c r="AA33">
         <v>5754000000</v>
       </c>
-      <c r="AA33">
+      <c r="AB33">
         <v>5717000000</v>
       </c>
-      <c r="AB33">
+      <c r="AC33">
         <v>5697000000</v>
       </c>
-      <c r="AC33">
+      <c r="AD33">
         <v>5609000000</v>
       </c>
-      <c r="AD33">
+      <c r="AE33">
         <v>5546000000</v>
       </c>
-      <c r="AE33">
+      <c r="AF33">
         <v>5716000000</v>
       </c>
-      <c r="AF33">
+      <c r="AG33">
         <v>5545000000</v>
       </c>
-      <c r="AG33">
+      <c r="AH33">
         <v>5794000000</v>
       </c>
-      <c r="AH33">
+      <c r="AI33">
         <v>6118000000</v>
       </c>
-      <c r="AI33">
+      <c r="AJ33">
         <v>6207000000</v>
       </c>
-      <c r="AJ33">
+      <c r="AK33">
         <v>6240000000</v>
       </c>
-      <c r="AK33">
+      <c r="AL33">
         <v>6184000000</v>
       </c>
-      <c r="AL33">
+      <c r="AM33">
         <v>6056000000</v>
       </c>
-      <c r="AM33">
+      <c r="AN33">
         <v>5863000000</v>
       </c>
-      <c r="AN33">
+      <c r="AO33">
         <v>5203000000</v>
       </c>
     </row>
-    <row r="34" spans="1:40">
-      <c r="A34" t="s">
-        <v>33</v>
+    <row r="34" spans="1:41">
+      <c r="A34" s="1" t="s">
+        <v>73</v>
       </c>
       <c r="B34">
+        <v>20868000000</v>
+      </c>
+      <c r="C34">
         <v>22941000000</v>
       </c>
-      <c r="C34">
+      <c r="D34">
         <v>22596000000</v>
       </c>
-      <c r="D34">
+      <c r="E34">
         <v>20823000000</v>
       </c>
-      <c r="E34">
+      <c r="F34">
         <v>20115000000</v>
       </c>
-      <c r="F34">
+      <c r="G34">
         <v>18397000000</v>
       </c>
-      <c r="G34">
+      <c r="H34">
         <v>17983000000</v>
       </c>
-      <c r="H34">
+      <c r="I34">
         <v>18490000000</v>
       </c>
-      <c r="I34">
+      <c r="J34">
         <v>17979000000</v>
       </c>
-      <c r="J34">
+      <c r="K34">
         <v>14831000000</v>
       </c>
-      <c r="K34">
+      <c r="L34">
         <v>14559000000</v>
       </c>
-      <c r="L34">
+      <c r="M34">
         <v>14798000000</v>
       </c>
-      <c r="M34">
+      <c r="N34">
         <v>13924000000</v>
       </c>
-      <c r="N34">
+      <c r="O34">
         <v>12980000000</v>
       </c>
-      <c r="O34">
+      <c r="P34">
         <v>14132000000</v>
       </c>
-      <c r="P34">
+      <c r="Q34">
         <v>14503000000</v>
       </c>
-      <c r="Q34">
+      <c r="R34">
         <v>15700000000</v>
       </c>
-      <c r="R34">
+      <c r="S34">
         <v>14855000000</v>
       </c>
-      <c r="S34">
+      <c r="T34">
         <v>15141000000</v>
       </c>
-      <c r="T34">
+      <c r="U34">
         <v>15790000000</v>
       </c>
-      <c r="U34">
+      <c r="V34">
         <v>15354000000</v>
       </c>
-      <c r="V34">
+      <c r="W34">
         <v>15072000000</v>
       </c>
-      <c r="W34">
+      <c r="X34">
         <v>14660000000</v>
       </c>
-      <c r="X34">
+      <c r="Y34">
         <v>14490000000</v>
       </c>
-      <c r="Y34">
+      <c r="Z34">
         <v>14150000000</v>
       </c>
-      <c r="Z34">
+      <c r="AA34">
         <v>14808000000</v>
       </c>
-      <c r="AA34">
+      <c r="AB34">
         <v>15099000000</v>
       </c>
-      <c r="AB34">
+      <c r="AC34">
         <v>13717000000</v>
       </c>
-      <c r="AC34">
+      <c r="AD34">
         <v>11861000000</v>
       </c>
-      <c r="AD34">
+      <c r="AE34">
         <v>11770000000</v>
       </c>
-      <c r="AE34">
+      <c r="AF34">
         <v>12104000000</v>
       </c>
-      <c r="AF34">
+      <c r="AG34">
         <v>12242000000</v>
       </c>
-      <c r="AG34">
+      <c r="AH34">
         <v>12071000000</v>
       </c>
-      <c r="AH34">
+      <c r="AI34">
         <v>12692000000</v>
       </c>
-      <c r="AI34">
+      <c r="AJ34">
         <v>13116000000</v>
       </c>
-      <c r="AJ34">
+      <c r="AK34">
         <v>12978000000</v>
       </c>
-      <c r="AK34">
+      <c r="AL34">
         <v>12577000000</v>
       </c>
-      <c r="AL34">
+      <c r="AM34">
         <v>12486000000</v>
       </c>
-      <c r="AM34">
+      <c r="AN34">
         <v>11953000000</v>
       </c>
-      <c r="AN34">
+      <c r="AO34">
         <v>9188000000</v>
       </c>
     </row>
-    <row r="35" spans="1:40">
-      <c r="A35" t="s">
-        <v>34</v>
-      </c>
-      <c r="B35">
+    <row r="35" spans="1:41">
+      <c r="A35" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="C35">
         <v>491234000</v>
       </c>
-      <c r="C35">
+      <c r="D35">
         <v>491205000</v>
       </c>
-      <c r="D35">
+      <c r="E35">
         <v>493464000</v>
       </c>
-      <c r="E35">
+      <c r="F35">
         <v>500039000</v>
       </c>
-      <c r="F35">
+      <c r="G35">
         <v>501621000</v>
       </c>
-      <c r="G35">
+      <c r="H35">
         <v>507684000</v>
       </c>
-      <c r="H35">
+      <c r="I35">
         <v>492726000</v>
       </c>
-      <c r="I35">
+      <c r="J35">
         <v>494802000</v>
       </c>
-      <c r="J35">
+      <c r="K35">
         <v>492063000</v>
       </c>
-      <c r="K35">
+      <c r="L35">
         <v>492747000</v>
       </c>
-      <c r="L35">
+      <c r="M35">
         <v>493014000</v>
       </c>
-      <c r="M35">
+      <c r="N35">
         <v>495282000</v>
       </c>
-      <c r="N35">
+      <c r="O35">
         <v>491682000</v>
       </c>
-      <c r="O35">
+      <c r="P35">
         <v>496167000</v>
       </c>
-      <c r="P35">
+      <c r="Q35">
         <v>497103000</v>
       </c>
-      <c r="Q35">
+      <c r="R35">
         <v>495495000</v>
       </c>
-      <c r="R35">
+      <c r="S35">
         <v>491847000</v>
       </c>
-      <c r="S35">
+      <c r="T35">
         <v>493509000</v>
       </c>
-      <c r="T35">
+      <c r="U35">
         <v>500841000</v>
       </c>
-      <c r="U35">
+      <c r="V35">
         <v>502323000</v>
       </c>
-      <c r="V35">
+      <c r="W35">
         <v>499785000</v>
       </c>
-      <c r="W35">
+      <c r="X35">
         <v>499179000</v>
       </c>
-      <c r="X35">
+      <c r="Y35">
         <v>495507000</v>
       </c>
-      <c r="Y35">
+      <c r="Z35">
         <v>499737000</v>
       </c>
-      <c r="Z35">
+      <c r="AA35">
         <v>495597000</v>
       </c>
-      <c r="AA35">
+      <c r="AB35">
         <v>496626000</v>
       </c>
-      <c r="AB35">
+      <c r="AC35">
         <v>493509000</v>
       </c>
-      <c r="AC35">
+      <c r="AD35">
         <v>492972000</v>
       </c>
-      <c r="AD35">
+      <c r="AE35">
         <v>492231000</v>
       </c>
-      <c r="AE35">
+      <c r="AF35">
         <v>506721000</v>
       </c>
-      <c r="AF35">
+      <c r="AG35">
         <v>506784000</v>
       </c>
-      <c r="AG35">
+      <c r="AH35">
         <v>506385000</v>
       </c>
-      <c r="AH35">
+      <c r="AI35">
         <v>505443000</v>
       </c>
-      <c r="AI35">
+      <c r="AJ35">
         <v>505764000</v>
       </c>
-      <c r="AJ35">
+      <c r="AK35">
         <v>511707000</v>
       </c>
-      <c r="AK35">
+      <c r="AL35">
         <v>508071000</v>
       </c>
-      <c r="AL35">
+      <c r="AM35">
         <v>502215000</v>
       </c>
-      <c r="AM35">
+      <c r="AN35">
         <v>501663000</v>
       </c>
-      <c r="AN35">
+      <c r="AO35">
         <v>497286000</v>
       </c>
     </row>
-    <row r="36" spans="1:40">
-      <c r="A36" t="s">
-        <v>35</v>
+    <row r="36" spans="1:41">
+      <c r="A36" s="1" t="s">
+        <v>75</v>
       </c>
       <c r="B36">
+        <v>-4516000000</v>
+      </c>
+      <c r="C36">
         <v>-4645000000</v>
       </c>
-      <c r="C36">
+      <c r="D36">
         <v>-4970000000</v>
       </c>
-      <c r="D36">
+      <c r="E36">
         <v>-5067000000</v>
       </c>
-      <c r="E36">
+      <c r="F36">
         <v>-4841000000</v>
       </c>
-      <c r="F36">
+      <c r="G36">
         <v>-5040000000</v>
       </c>
-      <c r="G36">
+      <c r="H36">
         <v>-4857000000</v>
       </c>
-      <c r="H36">
+      <c r="I36">
         <v>-5141000000</v>
       </c>
-      <c r="I36">
+      <c r="J36">
         <v>-2669000000</v>
       </c>
-      <c r="J36">
+      <c r="K36">
         <v>-2804000000</v>
       </c>
-      <c r="K36">
+      <c r="L36">
         <v>-2946000000</v>
       </c>
-      <c r="L36">
+      <c r="M36">
         <v>-3128000000</v>
       </c>
-      <c r="M36">
+      <c r="N36">
         <v>-2976000000</v>
       </c>
-      <c r="N36">
+      <c r="O36">
         <v>-3144000000</v>
       </c>
-      <c r="O36">
+      <c r="P36">
         <v>-3135000000</v>
       </c>
-      <c r="P36">
+      <c r="Q36">
         <v>-3215000000</v>
       </c>
-      <c r="Q36">
+      <c r="R36">
         <v>-3214000000</v>
       </c>
-      <c r="R36">
+      <c r="S36">
         <v>-3095000000</v>
       </c>
-      <c r="S36">
+      <c r="T36">
         <v>-3164000000</v>
       </c>
-      <c r="T36">
+      <c r="U36">
         <v>-3256000000</v>
       </c>
-      <c r="U36">
+      <c r="V36">
         <v>-3174000000</v>
       </c>
-      <c r="V36">
+      <c r="W36">
         <v>-2510000000</v>
       </c>
-      <c r="W36">
+      <c r="X36">
         <v>-2763000000</v>
       </c>
-      <c r="X36">
+      <c r="Y36">
         <v>-2800000000</v>
       </c>
-      <c r="Y36">
+      <c r="Z36">
         <v>-2691000000</v>
       </c>
-      <c r="Z36">
+      <c r="AA36">
         <v>-3192000000</v>
       </c>
-      <c r="AA36">
+      <c r="AB36">
         <v>-3290000000</v>
       </c>
-      <c r="AB36">
+      <c r="AC36">
         <v>-2051000000</v>
       </c>
-      <c r="AC36">
+      <c r="AD36">
         <v>-1745000000</v>
       </c>
-      <c r="AD36">
+      <c r="AE36">
         <v>-1856000000</v>
       </c>
-      <c r="AE36">
+      <c r="AF36">
         <v>-1762000000</v>
       </c>
-      <c r="AF36">
+      <c r="AG36">
         <v>-1800000000</v>
       </c>
-      <c r="AG36">
+      <c r="AH36">
         <v>-1821000000</v>
       </c>
-      <c r="AH36">
+      <c r="AI36">
         <v>-1897000000</v>
       </c>
-      <c r="AI36">
+      <c r="AJ36">
         <v>-2174000000</v>
       </c>
-      <c r="AJ36">
+      <c r="AK36">
         <v>-2295000000</v>
       </c>
-      <c r="AK36">
+      <c r="AL36">
         <v>-2388000000</v>
       </c>
-      <c r="AL36">
+      <c r="AM36">
         <v>-2544000000</v>
       </c>
-      <c r="AM36">
+      <c r="AN36">
         <v>-2568000000</v>
       </c>
-      <c r="AN36">
+      <c r="AO36">
         <v>-1725000000</v>
       </c>
     </row>
-    <row r="37" spans="1:40">
-      <c r="A37" t="s">
-        <v>36</v>
+    <row r="37" spans="1:41">
+      <c r="A37" s="1" t="s">
+        <v>76</v>
       </c>
       <c r="B37">
+        <v>4030000000</v>
+      </c>
+      <c r="C37">
         <v>5074000000</v>
       </c>
-      <c r="C37">
+      <c r="D37">
         <v>5127000000</v>
       </c>
-      <c r="D37">
+      <c r="E37">
         <v>5214000000</v>
       </c>
-      <c r="E37">
+      <c r="F37">
         <v>5445000000</v>
       </c>
-      <c r="F37">
+      <c r="G37">
         <v>5420000000</v>
       </c>
-      <c r="G37">
+      <c r="H37">
         <v>5065000000</v>
       </c>
-      <c r="H37">
+      <c r="I37">
         <v>4909000000</v>
       </c>
-      <c r="I37">
+      <c r="J37">
         <v>2610000000</v>
       </c>
-      <c r="J37">
+      <c r="K37">
         <v>2796000000</v>
       </c>
-      <c r="K37">
+      <c r="L37">
         <v>2572000000</v>
       </c>
-      <c r="L37">
+      <c r="M37">
         <v>2868000000</v>
       </c>
-      <c r="M37">
+      <c r="N37">
         <v>2795000000</v>
       </c>
-      <c r="N37">
+      <c r="O37">
         <v>2606000000</v>
       </c>
-      <c r="O37">
+      <c r="P37">
         <v>2400000000</v>
       </c>
-      <c r="P37">
+      <c r="Q37">
         <v>1569000000</v>
       </c>
-      <c r="Q37">
+      <c r="R37">
         <v>2102000000</v>
       </c>
-      <c r="R37">
+      <c r="S37">
         <v>2494000000</v>
       </c>
-      <c r="S37">
+      <c r="T37">
         <v>2410000000</v>
       </c>
-      <c r="T37">
+      <c r="U37">
         <v>2502000000</v>
       </c>
-      <c r="U37">
+      <c r="V37">
         <v>3093000000</v>
       </c>
-      <c r="V37">
+      <c r="W37">
         <v>2831000000</v>
       </c>
-      <c r="W37">
+      <c r="X37">
         <v>2384000000</v>
       </c>
-      <c r="X37">
+      <c r="Y37">
         <v>2937000000</v>
       </c>
-      <c r="Y37">
+      <c r="Z37">
         <v>2940000000</v>
       </c>
-      <c r="Z37">
+      <c r="AA37">
         <v>3195000000</v>
       </c>
-      <c r="AA37">
+      <c r="AB37">
         <v>3110000000</v>
       </c>
-      <c r="AB37">
+      <c r="AC37">
         <v>1954000000</v>
       </c>
-      <c r="AC37">
+      <c r="AD37">
         <v>1806000000</v>
       </c>
-      <c r="AD37">
+      <c r="AE37">
         <v>1934000000</v>
       </c>
-      <c r="AE37">
+      <c r="AF37">
         <v>1676000000</v>
       </c>
-      <c r="AF37">
+      <c r="AG37">
         <v>1765000000</v>
       </c>
-      <c r="AG37">
+      <c r="AH37">
         <v>1647000000</v>
       </c>
-      <c r="AH37">
+      <c r="AI37">
         <v>1863000000</v>
       </c>
-      <c r="AI37">
+      <c r="AJ37">
         <v>1852000000</v>
       </c>
-      <c r="AJ37">
+      <c r="AK37">
         <v>1849000000</v>
       </c>
-      <c r="AK37">
+      <c r="AL37">
         <v>1963000000</v>
       </c>
-      <c r="AL37">
+      <c r="AM37">
         <v>2147000000</v>
       </c>
-      <c r="AM37">
+      <c r="AN37">
         <v>2154000000</v>
       </c>
-      <c r="AN37">
+      <c r="AO37">
         <v>937000000</v>
       </c>
     </row>
-    <row r="38" spans="1:40">
-      <c r="A38" t="s">
-        <v>37</v>
+    <row r="38" spans="1:41">
+      <c r="A38" s="1" t="s">
+        <v>77</v>
       </c>
       <c r="B38">
+        <v>4735000000</v>
+      </c>
+      <c r="C38">
         <v>5426000000</v>
       </c>
-      <c r="C38">
+      <c r="D38">
         <v>5772000000</v>
       </c>
-      <c r="D38">
+      <c r="E38">
         <v>5956000000</v>
       </c>
-      <c r="E38">
+      <c r="F38">
         <v>5867000000</v>
       </c>
-      <c r="F38">
+      <c r="G38">
         <v>5937000000</v>
       </c>
-      <c r="G38">
+      <c r="H38">
         <v>5730000000</v>
       </c>
-      <c r="H38">
+      <c r="I38">
         <v>5936000000</v>
       </c>
-      <c r="I38">
+      <c r="J38">
         <v>5587000000</v>
       </c>
-      <c r="J38">
+      <c r="K38">
         <v>3590000000</v>
       </c>
-      <c r="K38">
+      <c r="L38">
         <v>3519000000</v>
       </c>
-      <c r="L38">
+      <c r="M38">
         <v>4166000000</v>
       </c>
-      <c r="M38">
+      <c r="N38">
         <v>3448000000</v>
       </c>
-      <c r="N38">
+      <c r="O38">
         <v>2939000000</v>
       </c>
-      <c r="O38">
+      <c r="P38">
         <v>3022000000</v>
       </c>
-      <c r="P38">
+      <c r="Q38">
         <v>2328000000</v>
       </c>
-      <c r="Q38">
+      <c r="R38">
         <v>2956000000</v>
       </c>
-      <c r="R38">
+      <c r="S38">
         <v>3072000000</v>
       </c>
-      <c r="S38">
+      <c r="T38">
         <v>3079000000</v>
       </c>
-      <c r="T38">
+      <c r="U38">
         <v>3155000000</v>
       </c>
-      <c r="U38">
+      <c r="V38">
         <v>3727000000</v>
       </c>
-      <c r="V38">
+      <c r="W38">
         <v>3589000000</v>
       </c>
-      <c r="W38">
+      <c r="X38">
         <v>3058000000</v>
       </c>
-      <c r="X38">
+      <c r="Y38">
         <v>3621000000</v>
       </c>
-      <c r="Y38">
+      <c r="Z38">
         <v>3603000000</v>
       </c>
-      <c r="Z38">
+      <c r="AA38">
         <v>3709000000</v>
       </c>
-      <c r="AA38">
+      <c r="AB38">
         <v>3731000000</v>
       </c>
-      <c r="AB38">
+      <c r="AC38">
         <v>2565000000</v>
       </c>
-      <c r="AC38">
+      <c r="AD38">
         <v>2364000000</v>
       </c>
-      <c r="AD38">
+      <c r="AE38">
         <v>2435000000</v>
       </c>
-      <c r="AE38">
+      <c r="AF38">
         <v>2281000000</v>
       </c>
-      <c r="AF38">
+      <c r="AG38">
         <v>2306000000</v>
       </c>
-      <c r="AG38">
+      <c r="AH38">
         <v>2297000000</v>
       </c>
-      <c r="AH38">
+      <c r="AI38">
         <v>2345000000</v>
       </c>
-      <c r="AI38">
+      <c r="AJ38">
         <v>2408000000</v>
       </c>
-      <c r="AJ38">
+      <c r="AK38">
         <v>2514000000</v>
       </c>
-      <c r="AK38">
+      <c r="AL38">
         <v>2634000000</v>
       </c>
-      <c r="AL38">
+      <c r="AM38">
         <v>2718000000</v>
       </c>
-      <c r="AM38">
+      <c r="AN38">
         <v>2785000000</v>
       </c>
-      <c r="AN38">
+      <c r="AO38">
         <v>1829000000</v>
       </c>
     </row>
